--- a/Data/source/Russian/Water footprint (Russian).xlsx
+++ b/Data/source/Russian/Water footprint (Russian).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="539">
   <si>
     <t>Product</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Apples, dried</t>
   </si>
   <si>
-    <t>Яблоки сушеные</t>
+    <t>Яблоки сушёные</t>
   </si>
   <si>
     <t>Apples, fresh</t>
@@ -139,7 +139,7 @@
     <t>Beans, dry</t>
   </si>
   <si>
-    <t>Бобы сушеные</t>
+    <t>Бобы сушёные</t>
   </si>
   <si>
     <t>Beans, green</t>
@@ -184,7 +184,7 @@
     <t>Horse beans</t>
   </si>
   <si>
-    <t>Боб садовый сушеный</t>
+    <t>Боб садовый сушёный</t>
   </si>
   <si>
     <t>Боб конский</t>
@@ -346,7 +346,7 @@
     <t>Перец свежий</t>
   </si>
   <si>
-    <t>Чили, красный, черный, черный</t>
+    <t>Чили, красный, чёрный</t>
   </si>
   <si>
     <t>Chillies and peppers, green</t>
@@ -442,18 +442,33 @@
     <t>Coffee, green</t>
   </si>
   <si>
+    <t>Кофе зелёный</t>
+  </si>
+  <si>
     <t>Coffee, roasted</t>
   </si>
   <si>
+    <t>Кофе обжареный</t>
+  </si>
+  <si>
     <t>Coriander</t>
   </si>
   <si>
+    <t>Кориандр</t>
+  </si>
+  <si>
     <t>Coriander seeds</t>
   </si>
   <si>
+    <t>Кориандр, семена</t>
+  </si>
+  <si>
     <t>Cotton fabric</t>
   </si>
   <si>
+    <t>Хлопок, ткань</t>
+  </si>
+  <si>
     <t>Cotton lint</t>
   </si>
   <si>
@@ -463,402 +478,849 @@
     <t>Cotton seeds</t>
   </si>
   <si>
+    <t>Хлопок, семена</t>
+  </si>
+  <si>
     <t>Cotton-seed oil</t>
   </si>
   <si>
+    <t>Хлопковое масло</t>
+  </si>
+  <si>
+    <t>Хлопчатниковое</t>
+  </si>
+  <si>
     <t>Cow peas, dry</t>
   </si>
   <si>
+    <t>Коровий горох</t>
+  </si>
+  <si>
+    <t>Вигна китайская</t>
+  </si>
+  <si>
     <t>Cranberries</t>
   </si>
   <si>
+    <t>Клюква</t>
+  </si>
+  <si>
     <t>Cucumbers</t>
   </si>
   <si>
+    <t>Огурцы</t>
+  </si>
+  <si>
     <t>Currants</t>
   </si>
   <si>
+    <t>Смородина</t>
+  </si>
+  <si>
+    <t>Черная, красная, белая</t>
+  </si>
+  <si>
     <t>Dates</t>
   </si>
   <si>
+    <t>Финики</t>
+  </si>
+  <si>
+    <t>Пальчатый</t>
+  </si>
+  <si>
     <t>Dried cassava</t>
   </si>
   <si>
+    <t>Маниок сушёный</t>
+  </si>
+  <si>
+    <t>Съедобный, кассава</t>
+  </si>
+  <si>
     <t>Dry pasta</t>
   </si>
   <si>
+    <t>Макароны</t>
+  </si>
+  <si>
+    <t>Макаронные изделия</t>
+  </si>
+  <si>
     <t>Egg</t>
   </si>
   <si>
+    <t>Яйца</t>
+  </si>
+  <si>
     <t>Eggplants</t>
   </si>
   <si>
     <t>Aubergines</t>
   </si>
   <si>
+    <t>Баклажа́н</t>
+  </si>
+  <si>
+    <t>Паслён темноплодный, бадриджа́н</t>
+  </si>
+  <si>
     <t>Fennel</t>
   </si>
   <si>
+    <t>Фенхель</t>
+  </si>
+  <si>
+    <t>Обыкновенный</t>
+  </si>
+  <si>
     <t>Figs</t>
   </si>
   <si>
+    <t>Инжир</t>
+  </si>
+  <si>
+    <t>Фига</t>
+  </si>
+  <si>
     <t>Flax fibre</t>
   </si>
   <si>
+    <t>Лён, волокно</t>
+  </si>
+  <si>
     <t>Fructose</t>
   </si>
   <si>
+    <t>Фруктоза</t>
+  </si>
+  <si>
     <t>Garlic</t>
   </si>
   <si>
+    <t>Чеснок</t>
+  </si>
+  <si>
     <t>Garlic powder</t>
   </si>
   <si>
+    <t>Чесночный порошок</t>
+  </si>
+  <si>
     <t>Gherkins</t>
   </si>
   <si>
+    <t>Солёные огурцы</t>
+  </si>
+  <si>
     <t>Ginger</t>
   </si>
   <si>
+    <t>Имбирь</t>
+  </si>
+  <si>
     <t>Goat meat</t>
   </si>
   <si>
     <t>Chevon, cabrito, capretto</t>
   </si>
   <si>
+    <t>Козье мясо</t>
+  </si>
+  <si>
     <t>Gooseberries</t>
   </si>
   <si>
+    <t>Крыжовник, плоды</t>
+  </si>
+  <si>
     <t>Gourds</t>
   </si>
   <si>
+    <t>Лагенария</t>
+  </si>
+  <si>
+    <t>Горлянка, калабас</t>
+  </si>
+  <si>
     <t>Grapefruit</t>
   </si>
   <si>
+    <t>Грейпфруты</t>
+  </si>
+  <si>
     <t>Grapefruit juice</t>
   </si>
   <si>
+    <t>Грейпфрутовый сок</t>
+  </si>
+  <si>
     <t>Grapes</t>
   </si>
   <si>
+    <t>Виноград</t>
+  </si>
+  <si>
     <t>Grapes, dried</t>
   </si>
   <si>
+    <t>Изюм</t>
+  </si>
+  <si>
     <t>Groundnut oil</t>
   </si>
   <si>
+    <t>Арахисовая паста</t>
+  </si>
+  <si>
     <t>Groundnuts in shell</t>
   </si>
   <si>
+    <t>Арахис в кожуре</t>
+  </si>
+  <si>
+    <t>Земляной орех</t>
+  </si>
+  <si>
     <t>Groundnuts shelled</t>
   </si>
   <si>
+    <t>Арахис чищеный</t>
+  </si>
+  <si>
     <t>Guavas</t>
   </si>
   <si>
+    <t>Гуайява</t>
+  </si>
+  <si>
     <t>Hazelnuts, shelled or peeled</t>
   </si>
   <si>
+    <t>Фундук чищеный</t>
+  </si>
+  <si>
+    <t>Лесной орех</t>
+  </si>
+  <si>
     <t>Hazelnuts, with shell</t>
   </si>
   <si>
+    <t>Фундук в скорлупе</t>
+  </si>
+  <si>
     <t>Hemp fibre</t>
   </si>
   <si>
+    <t>Пенька, волокно</t>
+  </si>
+  <si>
     <t>Hempseed</t>
   </si>
   <si>
+    <t>Конопляные семена</t>
+  </si>
+  <si>
     <t>Hop cones</t>
   </si>
   <si>
+    <t>Хмель (шишки)</t>
+  </si>
+  <si>
     <t>Hop extract</t>
   </si>
   <si>
+    <t>Хмель (экстракт)</t>
+  </si>
+  <si>
     <t>Jute</t>
   </si>
   <si>
+    <t>Джут</t>
+  </si>
+  <si>
     <t>Kiwi fruit</t>
   </si>
   <si>
+    <t>Киви</t>
+  </si>
+  <si>
     <t>Kola nuts</t>
   </si>
   <si>
+    <t>Кола, орехи</t>
+  </si>
+  <si>
     <t>Lamb</t>
   </si>
   <si>
     <t>Sheep meat, hogget, mutton</t>
   </si>
   <si>
+    <t>Баранина</t>
+  </si>
+  <si>
+    <t>Мясо овец, ягнятина</t>
+  </si>
+  <si>
     <t>Leather from beef cattle</t>
   </si>
   <si>
+    <t>Кожа крупного рогатого скота</t>
+  </si>
+  <si>
     <t>Lemons</t>
   </si>
   <si>
+    <t>Лимоны</t>
+  </si>
+  <si>
     <t>Lentils</t>
   </si>
   <si>
+    <t>Чечевица</t>
+  </si>
+  <si>
     <t>Lettuce</t>
   </si>
   <si>
+    <t>Латук, салат</t>
+  </si>
+  <si>
     <t>Limes</t>
   </si>
   <si>
+    <t>Лайм</t>
+  </si>
+  <si>
     <t>Linseed</t>
   </si>
   <si>
+    <t>Лён, семена</t>
+  </si>
+  <si>
     <t>Linseed oil</t>
   </si>
   <si>
+    <t>Льняное масло</t>
+  </si>
+  <si>
     <t>Maize</t>
   </si>
   <si>
     <t>Corn</t>
   </si>
   <si>
+    <t>Кукуруза</t>
+  </si>
+  <si>
+    <t>Маис</t>
+  </si>
+  <si>
     <t>Maize flour</t>
   </si>
   <si>
+    <t>Кукурузная мука</t>
+  </si>
+  <si>
     <t>Maize groats and meal</t>
   </si>
   <si>
+    <t>Кукурузная крупа</t>
+  </si>
+  <si>
     <t>Maize oil</t>
   </si>
   <si>
+    <t>Кукурузное масло</t>
+  </si>
+  <si>
     <t>Maize starch</t>
   </si>
   <si>
+    <t>Кукурузный крахмал</t>
+  </si>
+  <si>
     <t>Maize, green</t>
   </si>
   <si>
+    <t>Кукуруза зеленая</t>
+  </si>
+  <si>
     <t>Malt, not roasted</t>
   </si>
   <si>
+    <t>Солод нежареный</t>
+  </si>
+  <si>
     <t>Malt, roasted</t>
   </si>
   <si>
+    <t>Солод жареный</t>
+  </si>
+  <si>
     <t>Mandarins</t>
   </si>
   <si>
+    <t>Мандарины</t>
+  </si>
+  <si>
     <t>Mangoes</t>
   </si>
   <si>
+    <t>Манго</t>
+  </si>
+  <si>
     <t>Mangosteens</t>
   </si>
   <si>
+    <t>Мангостан</t>
+  </si>
+  <si>
+    <t>Мангустин</t>
+  </si>
+  <si>
     <t>Manila fibre</t>
   </si>
   <si>
     <t>Abaca</t>
   </si>
   <si>
+    <t>Манильская пенька</t>
+  </si>
+  <si>
     <t>Manioc</t>
   </si>
   <si>
     <t>Cassava</t>
   </si>
   <si>
+    <t>Маниок</t>
+  </si>
+  <si>
     <t>Manioc starch</t>
   </si>
   <si>
+    <t>Маниок, крахмал</t>
+  </si>
+  <si>
     <t>Melon seed</t>
   </si>
   <si>
+    <t>Тыквенные семечки</t>
+  </si>
+  <si>
     <t>Milk</t>
   </si>
   <si>
+    <t>Молоко</t>
+  </si>
+  <si>
     <t>Milk powder</t>
   </si>
   <si>
+    <t>Молоко сухое</t>
+  </si>
+  <si>
     <t>Millet</t>
   </si>
   <si>
+    <t>Пшено</t>
+  </si>
+  <si>
     <t>Mustard seeds</t>
   </si>
   <si>
+    <t>Горчица, семена</t>
+  </si>
+  <si>
     <t>Natural rubber</t>
   </si>
   <si>
+    <t>Резина натуральная</t>
+  </si>
+  <si>
+    <t>Каучук</t>
+  </si>
+  <si>
     <t>Nectarines</t>
   </si>
   <si>
+    <t>Нектарины</t>
+  </si>
+  <si>
     <t>Nutmeg</t>
   </si>
   <si>
     <t>Mace</t>
   </si>
   <si>
+    <t>Мускатный орех</t>
+  </si>
+  <si>
     <t>Oat groats and meal</t>
   </si>
   <si>
+    <t>Овсяная крупа</t>
+  </si>
+  <si>
     <t>Oats</t>
   </si>
   <si>
+    <t>Овес</t>
+  </si>
+  <si>
     <t>Oats, rolled or flaked grains</t>
   </si>
   <si>
+    <t>Овсяные хлопья</t>
+  </si>
+  <si>
     <t>Oil palm</t>
   </si>
   <si>
+    <t>Масличная пальма</t>
+  </si>
+  <si>
+    <t>Элеис</t>
+  </si>
+  <si>
     <t>Okra</t>
   </si>
   <si>
+    <t>Бамия</t>
+  </si>
+  <si>
+    <t>Окра, дамские пальчики, гомбо</t>
+  </si>
+  <si>
     <t>Olive oil</t>
   </si>
   <si>
+    <t>Оливковое масло рафинированое (refined)</t>
+  </si>
+  <si>
     <t>Olive oil, virgin</t>
   </si>
   <si>
+    <t>Оливковое масло (virgin)</t>
+  </si>
+  <si>
     <t>Olives</t>
   </si>
   <si>
+    <t>Оливки</t>
+  </si>
+  <si>
     <t>Onions, dry</t>
   </si>
   <si>
+    <t>Чеснок сухой</t>
+  </si>
+  <si>
     <t>Onions, green</t>
   </si>
   <si>
     <t>Shallots</t>
   </si>
   <si>
+    <t>Чеснок зеленый</t>
+  </si>
+  <si>
+    <t>Молодой</t>
+  </si>
+  <si>
     <t>Orange juice</t>
   </si>
   <si>
+    <t>Апельсиновый сок</t>
+  </si>
+  <si>
     <t>Oranges</t>
   </si>
   <si>
+    <t>Апельсины</t>
+  </si>
+  <si>
     <t>Palm kernel oil</t>
   </si>
   <si>
     <t>Babassu</t>
   </si>
   <si>
+    <t>Пальмоядровое масло</t>
+  </si>
+  <si>
     <t>Palm nuts and kernels</t>
   </si>
   <si>
+    <t>Пальмовое ядра и семена</t>
+  </si>
+  <si>
     <t>Palm oil</t>
   </si>
   <si>
+    <t>Пальмовое масло</t>
+  </si>
+  <si>
     <t>Papayas</t>
   </si>
   <si>
+    <t>Папайя</t>
+  </si>
+  <si>
+    <t>Дынное дерево</t>
+  </si>
+  <si>
     <t>Peaches</t>
   </si>
   <si>
+    <t>Персики</t>
+  </si>
+  <si>
     <t>Pears</t>
   </si>
   <si>
+    <t>Груша</t>
+  </si>
+  <si>
     <t>Peas, dry</t>
   </si>
   <si>
+    <t>Горох сушёный</t>
+  </si>
+  <si>
     <t>Peas, green</t>
   </si>
   <si>
+    <t>Горох зелёный</t>
+  </si>
+  <si>
     <t>Peppermint</t>
   </si>
   <si>
+    <t>Мята перечная</t>
+  </si>
+  <si>
     <t>Pigeon peas</t>
   </si>
   <si>
+    <t>Голубиный горох</t>
+  </si>
+  <si>
     <t>Pineapple juice</t>
   </si>
   <si>
+    <t>Ананасовый сок</t>
+  </si>
+  <si>
     <t>Pineapples</t>
   </si>
   <si>
+    <t>Ананасы</t>
+  </si>
+  <si>
     <t>Pistachios</t>
   </si>
   <si>
+    <t>Фисташки</t>
+  </si>
+  <si>
     <t>Plantains</t>
   </si>
   <si>
+    <t>Плантан</t>
+  </si>
+  <si>
+    <t>Плантано</t>
+  </si>
+  <si>
     <t>Plums</t>
   </si>
   <si>
+    <t>Сливы</t>
+  </si>
+  <si>
     <t>Poppy seeds</t>
   </si>
   <si>
+    <t>Мак, семена</t>
+  </si>
+  <si>
     <t>Pork</t>
   </si>
   <si>
     <t>Pig meat, ham, bacon, sausage</t>
   </si>
   <si>
+    <t>Свинина</t>
+  </si>
+  <si>
+    <t>Мясо свиней, ветчина, колбаса</t>
+  </si>
+  <si>
     <t>Potato flakes</t>
   </si>
   <si>
+    <t>Картофельные чипсы</t>
+  </si>
+  <si>
     <t>Potato flour and meal</t>
   </si>
   <si>
+    <t>Картофельная мука</t>
+  </si>
+  <si>
     <t>Potato starch</t>
   </si>
   <si>
+    <t>Картофельный крахмал</t>
+  </si>
+  <si>
     <t>Potatoes</t>
   </si>
   <si>
+    <t>Картофель</t>
+  </si>
+  <si>
     <t>Pumpkins</t>
   </si>
   <si>
+    <t>Тыква</t>
+  </si>
+  <si>
     <t>Ramie</t>
   </si>
   <si>
+    <t>Рами</t>
+  </si>
+  <si>
+    <t>Крапива китайская, бомерия белоснежная</t>
+  </si>
+  <si>
     <t>Rape oil</t>
   </si>
   <si>
+    <t>Рапс, масло</t>
+  </si>
+  <si>
     <t>Rapeseed</t>
   </si>
   <si>
+    <t>Рапс</t>
+  </si>
+  <si>
     <t>Raspberries</t>
   </si>
   <si>
-    <t>Rice</t>
+    <t>Малина</t>
+  </si>
+  <si>
+    <t>Rice groats and meal</t>
+  </si>
+  <si>
+    <t>Рисовая крупа</t>
   </si>
   <si>
     <t>Rice flour</t>
   </si>
   <si>
+    <t>Рисовая мука</t>
+  </si>
+  <si>
     <t>Rice, broken</t>
   </si>
   <si>
+    <t>Рис дроблёный</t>
+  </si>
+  <si>
     <t>Rice, brown</t>
   </si>
   <si>
     <t>Husked</t>
   </si>
   <si>
+    <t>Рис коричневый</t>
+  </si>
+  <si>
     <t>Rice, paddy</t>
   </si>
   <si>
+    <t>Рис-сырец</t>
+  </si>
+  <si>
     <t>Rye</t>
   </si>
   <si>
+    <t>Рожь</t>
+  </si>
+  <si>
     <t>Rye flour</t>
   </si>
   <si>
+    <t>Ржаная мука</t>
+  </si>
+  <si>
     <t>Safflower seeds</t>
   </si>
   <si>
+    <t>Сафлор, семена</t>
+  </si>
+  <si>
+    <t>Дикий шафран</t>
+  </si>
+  <si>
     <t>Seed cotton</t>
   </si>
   <si>
+    <t>Хлопковое семя</t>
+  </si>
+  <si>
     <t>Sesame oil</t>
   </si>
   <si>
+    <t>Кунжутное масло</t>
+  </si>
+  <si>
+    <t>Сезамавое</t>
+  </si>
+  <si>
     <t>Sesame seed</t>
   </si>
   <si>
+    <t>Кунжутные семечки</t>
+  </si>
+  <si>
     <t>Sisal</t>
   </si>
   <si>
+    <t>Сизаль</t>
+  </si>
+  <si>
+    <t>Агава сизалевая</t>
+  </si>
+  <si>
     <t>Sisal textile fibres</t>
   </si>
   <si>
+    <t>Сизаловое волокно</t>
+  </si>
+  <si>
     <t>Sloes</t>
   </si>
   <si>
+    <t>Тёрн</t>
+  </si>
+  <si>
+    <t>Терновник</t>
+  </si>
+  <si>
     <t>Sorghum</t>
   </si>
   <si>
+    <t>Сорго</t>
+  </si>
+  <si>
     <t>Sour cherries</t>
   </si>
   <si>
@@ -871,142 +1333,301 @@
     <t>Soy milk</t>
   </si>
   <si>
+    <t>Соевое молоко</t>
+  </si>
+  <si>
     <t>Soya bean flour and meals</t>
   </si>
   <si>
+    <t>Соя</t>
+  </si>
+  <si>
     <t>Soya beans</t>
   </si>
   <si>
+    <t>Соевая мука</t>
+  </si>
+  <si>
     <t>Soya curd</t>
   </si>
   <si>
+    <t>Тофу</t>
+  </si>
+  <si>
+    <t>Соевый творог</t>
+  </si>
+  <si>
     <t>Soya paste</t>
   </si>
   <si>
+    <t>Соевая паста</t>
+  </si>
+  <si>
     <t>Soya sauce</t>
   </si>
   <si>
+    <t>Соевый соус</t>
+  </si>
+  <si>
     <t>Soybean oil</t>
   </si>
   <si>
+    <t>Соевое масло</t>
+  </si>
+  <si>
     <t>Spinach</t>
   </si>
   <si>
+    <t>Шпинат</t>
+  </si>
+  <si>
     <t>Squash</t>
   </si>
   <si>
     <t>Strawberries</t>
   </si>
   <si>
+    <t>Земляника</t>
+  </si>
+  <si>
+    <t>Клубника</t>
+  </si>
+  <si>
     <t>String beans</t>
   </si>
   <si>
+    <t>Зелёностручковая фасоль</t>
+  </si>
+  <si>
+    <t>Спаржевая, зелёная</t>
+  </si>
+  <si>
     <t>Sugar beet</t>
   </si>
   <si>
+    <t>Сахарная свёкла</t>
+  </si>
+  <si>
     <t>Sugar cane</t>
   </si>
   <si>
+    <t>Сахарный тростник</t>
+  </si>
+  <si>
     <t>Sugar, raw (beet)</t>
   </si>
   <si>
+    <t>Сахар коричневый тростниковый</t>
+  </si>
+  <si>
     <t>Sugar, raw (cane)</t>
   </si>
   <si>
+    <t>Сахар нерафинированый свекольный</t>
+  </si>
+  <si>
     <t>Sugar, refined</t>
   </si>
   <si>
+    <t>Сахар белый</t>
+  </si>
+  <si>
+    <t>Рафинированый</t>
+  </si>
+  <si>
     <t>Sunflower seed oil</t>
   </si>
   <si>
+    <t>Подсолнечное масло</t>
+  </si>
+  <si>
     <t>Sunflower seeds</t>
   </si>
   <si>
+    <t>Подсолнечник, семена</t>
+  </si>
+  <si>
     <t>Sweet potatoes</t>
   </si>
   <si>
+    <t>Батат</t>
+  </si>
+  <si>
     <t>Tangerines</t>
   </si>
   <si>
+    <t xml:space="preserve">Тапиока </t>
+  </si>
+  <si>
     <t>Tapioca of cassava</t>
   </si>
   <si>
+    <t>Маниок, тапиока</t>
+  </si>
+  <si>
     <t>Tapioca of potatoes</t>
   </si>
   <si>
+    <t>Картофельная тапиока</t>
+  </si>
+  <si>
     <t>Taro</t>
   </si>
   <si>
     <t>Coco yam</t>
   </si>
   <si>
+    <t>Таро</t>
+  </si>
+  <si>
+    <t>Колоказия</t>
+  </si>
+  <si>
     <t>Tea, green and black</t>
   </si>
   <si>
+    <t>Чай, чёрный и зелёный</t>
+  </si>
+  <si>
     <t>Tobacco</t>
   </si>
   <si>
+    <t>Табак</t>
+  </si>
+  <si>
     <t>Tomato juice</t>
   </si>
   <si>
+    <t>Томатный сок</t>
+  </si>
+  <si>
+    <t>Помидоры</t>
+  </si>
+  <si>
     <t>Tomato juice, concentrated</t>
   </si>
   <si>
+    <t>Томатный сок концентрированный</t>
+  </si>
+  <si>
     <t>Tomato ketchup</t>
   </si>
   <si>
+    <t>Томатный кетчуп</t>
+  </si>
+  <si>
     <t>Tomato paste</t>
   </si>
   <si>
+    <t>Томатная паста</t>
+  </si>
+  <si>
     <t>Tomato puree</t>
   </si>
   <si>
+    <t>Томатное пюре</t>
+  </si>
+  <si>
     <t>Tomato, dried</t>
   </si>
   <si>
+    <t>Томаты вяленые</t>
+  </si>
+  <si>
     <t>Tomatoes</t>
   </si>
   <si>
+    <t>Томаты</t>
+  </si>
+  <si>
     <t>Tomatoes, peeled</t>
   </si>
   <si>
+    <t>Томаты очищенные</t>
+  </si>
+  <si>
     <t>Turnips</t>
   </si>
   <si>
+    <t>Турнепс</t>
+  </si>
+  <si>
+    <t>Кормовая репа</t>
+  </si>
+  <si>
     <t>Vanilla beans</t>
   </si>
   <si>
+    <t>Ваниль</t>
+  </si>
+  <si>
     <t>Walnuts, shelled or peeled</t>
   </si>
   <si>
+    <t>Грецкий орех, без скорлупы</t>
+  </si>
+  <si>
     <t>Walnuts, with shell</t>
   </si>
   <si>
+    <t>Грецкий орех, в скорлупе</t>
+  </si>
+  <si>
     <t>Watermelons</t>
   </si>
   <si>
+    <t>Арбуз</t>
+  </si>
+  <si>
     <t>Wheat</t>
   </si>
   <si>
+    <t>Пшеница</t>
+  </si>
+  <si>
     <t>Wheat flour</t>
   </si>
   <si>
+    <t>Пшеничная мука</t>
+  </si>
+  <si>
     <t>Wheat gluten</t>
   </si>
   <si>
+    <t>Пшеничная клейковина</t>
+  </si>
+  <si>
+    <t>Сейтан</t>
+  </si>
+  <si>
     <t>Wheat pellets</t>
   </si>
   <si>
+    <t>Пшеничные отруби</t>
+  </si>
+  <si>
     <t>Wheat starch</t>
   </si>
   <si>
+    <t>Пшеничный крахмал</t>
+  </si>
+  <si>
     <t>Wine (grape)</t>
   </si>
   <si>
     <t>Sparkling</t>
   </si>
   <si>
+    <t>Вино виноградное</t>
+  </si>
+  <si>
+    <t>Шампанское</t>
+  </si>
+  <si>
     <t>Yams</t>
+  </si>
+  <si>
+    <t>Ямс</t>
   </si>
 </sst>
 </file>
@@ -2138,18 +2759,24 @@
       <c r="D61" s="7">
         <v>15897.0</v>
       </c>
+      <c r="E61" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="7">
         <v>60.0</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="7">
         <v>18925.0</v>
       </c>
+      <c r="E62" s="9" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="7">
@@ -2162,49 +2789,61 @@
       <c r="D63" s="7">
         <v>2093.0</v>
       </c>
+      <c r="E63" s="9" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="7">
         <v>62.0</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="7">
         <v>8280.0</v>
       </c>
+      <c r="E64" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="7">
         <v>63.0</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="7">
         <v>8280.0</v>
       </c>
+      <c r="E65" s="9" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="7">
         <v>64.0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="7">
         <v>9982.0</v>
       </c>
+      <c r="E66" s="9" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="7">
         <v>65.0</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="7">
@@ -2216,7 +2855,7 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="7">
@@ -2228,133 +2867,187 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="7">
         <v>1332.0</v>
       </c>
+      <c r="E69" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="7">
         <v>68.0</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="7">
         <v>3957.0</v>
       </c>
+      <c r="E70" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="7">
         <v>69.0</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="7">
         <v>6906.0</v>
       </c>
+      <c r="E71" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="7">
         <v>70.0</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="7">
         <v>276.0</v>
       </c>
+      <c r="E72" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="7">
         <v>71.0</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="7">
         <v>353.0</v>
       </c>
+      <c r="E73" s="9" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="7">
         <v>72.0</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="7">
         <v>499.0</v>
       </c>
+      <c r="E74" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="7">
         <v>73.0</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="7">
         <v>2277.0</v>
       </c>
+      <c r="E75" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="7">
         <v>74.0</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="7">
         <v>1610.0</v>
       </c>
+      <c r="E76" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="7">
         <v>75.0</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="7">
         <v>1849.0</v>
       </c>
+      <c r="E77" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="7">
         <v>76.0</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="7">
         <v>3265.0</v>
       </c>
+      <c r="E78" s="9" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="7">
         <v>77.0</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D79" s="7">
         <v>362.0</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="80">
@@ -2362,109 +3055,143 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="7">
         <v>8280.0</v>
       </c>
+      <c r="E80" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="7">
         <v>79.0</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="7">
         <v>3350.0</v>
       </c>
+      <c r="E81" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="7">
         <v>80.0</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="7">
         <v>3783.0</v>
       </c>
+      <c r="E82" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" s="9"/>
     </row>
     <row r="83">
       <c r="A83" s="7">
         <v>81.0</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="7">
         <v>1782.0</v>
       </c>
+      <c r="E83" s="9" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="7">
         <v>82.0</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="7">
         <v>589.0</v>
       </c>
+      <c r="E84" s="9" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="7">
         <v>83.0</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="7">
         <v>2265.0</v>
       </c>
+      <c r="E85" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="7">
         <v>84.0</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="7">
         <v>353.0</v>
       </c>
+      <c r="E86" s="9" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="7">
         <v>85.0</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="7">
         <v>1657.0</v>
       </c>
+      <c r="E87" s="9" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="7">
         <v>86.0</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="D88" s="7">
         <v>5521.0</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="89">
@@ -2472,241 +3199,322 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="7">
         <v>526.0</v>
       </c>
+      <c r="E89" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="7">
         <v>88.0</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="7">
         <v>336.0</v>
       </c>
+      <c r="E90" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="7">
         <v>89.0</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="7">
         <v>506.0</v>
       </c>
+      <c r="E91" s="9" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="7">
         <v>90.0</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="7">
         <v>675.0</v>
       </c>
+      <c r="E92" s="9" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="7">
         <v>91.0</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="7">
         <v>608.0</v>
       </c>
+      <c r="E93" s="9" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="7">
         <v>92.0</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="7">
         <v>2433.0</v>
       </c>
+      <c r="E94" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="7">
         <v>93.0</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="7">
         <v>7529.0</v>
       </c>
+      <c r="E95" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="7">
         <v>94.0</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="7">
         <v>2782.0</v>
       </c>
+      <c r="E96" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="7">
         <v>95.0</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="7">
         <v>3974.0</v>
       </c>
+      <c r="E97" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="7">
         <v>96.0</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="7">
         <v>1800.0</v>
       </c>
+      <c r="E98" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="7">
         <v>97.0</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="7">
         <v>10515.0</v>
       </c>
+      <c r="E99" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="7">
         <v>98.0</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="7">
         <v>5258.0</v>
       </c>
+      <c r="E100" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="7">
         <v>99.0</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="7">
         <v>2447.0</v>
       </c>
+      <c r="E101" s="9" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="7">
         <v>100.0</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="7">
         <v>3685.0</v>
       </c>
+      <c r="E102" s="9" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="7">
         <v>101.0</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="7">
         <v>4065.0</v>
       </c>
+      <c r="E103" s="9" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="7">
         <v>102.0</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="7">
         <v>16259.0</v>
       </c>
+      <c r="E104" s="9" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="7">
         <v>103.0</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="7">
         <v>2605.0</v>
       </c>
+      <c r="E105" s="9" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="7">
         <v>104.0</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="7">
         <v>514.0</v>
       </c>
+      <c r="E106" s="9" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="7">
         <v>105.0</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="7">
         <v>23391.0</v>
       </c>
+      <c r="E107" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="7">
         <v>106.0</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="D108" s="7">
         <v>10412.0</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="109">
@@ -2714,97 +3522,124 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="7">
         <v>17093.0</v>
       </c>
+      <c r="E109" s="9" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="7">
         <v>108.0</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="7">
         <v>642.0</v>
       </c>
+      <c r="E110" s="9" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="7">
         <v>109.0</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="7">
         <v>5874.0</v>
       </c>
+      <c r="E111" s="9" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="7">
         <v>110.0</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="7">
         <v>237.0</v>
       </c>
+      <c r="E112" s="9" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="7">
         <v>111.0</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="7">
         <v>642.0</v>
       </c>
+      <c r="E113" s="9" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="7">
         <v>112.0</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="7">
         <v>5168.0</v>
       </c>
+      <c r="E114" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="7">
         <v>113.0</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="7">
         <v>9415.0</v>
       </c>
+      <c r="E115" s="9" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="7">
         <v>114.0</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="D116" s="7">
         <v>1222.0</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="117">
@@ -2812,13 +3647,19 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="D117" s="7">
         <v>1253.0</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="118">
@@ -2826,13 +3667,19 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="D118" s="7">
         <v>1081.0</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="119">
@@ -2840,13 +3687,19 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="D119" s="7">
         <v>2575.0</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="120">
@@ -2854,13 +3707,19 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="D120" s="7">
         <v>1671.0</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="121">
@@ -2868,13 +3727,16 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="D121" s="7">
         <v>700.0</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="122">
@@ -2882,73 +3744,94 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="7">
         <v>1950.0</v>
       </c>
+      <c r="E122" s="9" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="7">
         <v>121.0</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="7">
         <v>2437.0</v>
       </c>
+      <c r="E123" s="9" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="7">
         <v>122.0</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="7">
         <v>748.0</v>
       </c>
+      <c r="E124" s="9" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="7">
         <v>123.0</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="7">
         <v>1800.0</v>
       </c>
+      <c r="E125" s="9" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="7">
         <v>124.0</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="7">
         <v>1800.0</v>
       </c>
+      <c r="E126" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="7">
         <v>125.0</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="D127" s="7">
         <v>20388.0</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="128">
@@ -2956,13 +3839,19 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="D128" s="7">
         <v>564.0</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="129">
@@ -2970,13 +3859,19 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="D129" s="7">
         <v>2254.0</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="130">
@@ -2984,97 +3879,124 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="7">
         <v>5184.0</v>
       </c>
+      <c r="E130" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="7">
         <v>129.0</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="7">
         <v>1020.0</v>
       </c>
+      <c r="E131" s="9" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="7">
         <v>130.0</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="7">
         <v>4745.0</v>
       </c>
+      <c r="E132" s="9" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="7">
         <v>131.0</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="7">
         <v>4478.0</v>
       </c>
+      <c r="E133" s="9" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="7">
         <v>132.0</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="7">
         <v>2809.0</v>
       </c>
+      <c r="E134" s="9" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="7">
         <v>133.0</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="7">
         <v>13748.0</v>
       </c>
+      <c r="E135" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="7">
         <v>134.0</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="7">
         <v>910.0</v>
       </c>
+      <c r="E136" s="9" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="7">
         <v>135.0</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>223</v>
+        <v>312</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>224</v>
+        <v>313</v>
       </c>
       <c r="D137" s="7">
         <v>34319.0</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="138">
@@ -3082,121 +4004,160 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="7">
         <v>2536.0</v>
       </c>
+      <c r="E138" s="9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="7">
         <v>137.0</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="7">
         <v>1788.0</v>
       </c>
+      <c r="E139" s="9" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="7">
         <v>138.0</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="7">
         <v>2416.0</v>
       </c>
+      <c r="E140" s="9" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="7">
         <v>139.0</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="7">
         <v>1098.0</v>
       </c>
+      <c r="E141" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="7">
         <v>140.0</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>229</v>
+        <v>324</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="7">
         <v>576.0</v>
       </c>
+      <c r="E142" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="7">
         <v>141.0</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="7">
         <v>14726.0</v>
       </c>
+      <c r="E143" s="9" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="7">
         <v>142.0</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>231</v>
+        <v>329</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="7">
         <v>14431.0</v>
       </c>
+      <c r="E144" s="9" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="7">
         <v>143.0</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="7">
         <v>3015.0</v>
       </c>
+      <c r="E145" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="7">
         <v>144.0</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="7">
         <v>345.0</v>
       </c>
+      <c r="E146" s="9" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="7">
         <v>145.0</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="D147" s="7">
         <v>272.0</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="148">
@@ -3204,37 +4165,46 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="7">
         <v>1018.0</v>
       </c>
+      <c r="E148" s="9" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="7">
         <v>147.0</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="7">
         <v>560.0</v>
       </c>
+      <c r="E149" s="9" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="7">
         <v>148.0</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="D150" s="7">
         <v>5401.0</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="151">
@@ -3242,193 +4212,250 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>240</v>
+        <v>346</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="7">
         <v>2868.0</v>
       </c>
+      <c r="E151" s="9" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="7">
         <v>150.0</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="7">
         <v>4971.0</v>
       </c>
+      <c r="E152" s="9" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="7">
         <v>151.0</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="7">
         <v>460.0</v>
       </c>
+      <c r="E153" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="7">
         <v>152.0</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="7">
         <v>910.0</v>
       </c>
+      <c r="E154" s="9" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="7">
         <v>153.0</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="7">
         <v>922.0</v>
       </c>
+      <c r="E155" s="9" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="7">
         <v>154.0</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="7">
         <v>1979.0</v>
       </c>
+      <c r="E156" s="9" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="7">
         <v>155.0</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="7">
         <v>595.0</v>
       </c>
+      <c r="E157" s="9" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="7">
         <v>157.0</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="7">
         <v>288.0</v>
       </c>
+      <c r="E158" s="9" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="7">
         <v>158.0</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>248</v>
+        <v>363</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="7">
         <v>5494.0</v>
       </c>
+      <c r="E159" s="9" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="7">
         <v>159.0</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="7">
         <v>1273.0</v>
       </c>
+      <c r="E160" s="9" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="7">
         <v>160.0</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="7">
         <v>255.0</v>
       </c>
+      <c r="E161" s="9" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="7">
         <v>161.0</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>251</v>
+        <v>369</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="7">
         <v>11363.0</v>
       </c>
+      <c r="E162" s="9" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="7">
         <v>162.0</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="7">
         <v>1602.0</v>
       </c>
+      <c r="E163" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="7">
         <v>163.0</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>253</v>
+        <v>374</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="7">
         <v>2180.0</v>
       </c>
+      <c r="E164" s="9" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="7">
         <v>164.0</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>254</v>
+        <v>376</v>
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="7">
         <v>2188.0</v>
       </c>
+      <c r="E165" s="9" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="7">
         <v>165.0</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>256</v>
+        <v>379</v>
       </c>
       <c r="D166" s="7">
         <v>5988.0</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="167">
@@ -3436,157 +4463,199 @@
         <v>166.0</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>257</v>
+        <v>382</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="7">
         <v>1044.0</v>
       </c>
+      <c r="E167" s="9" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="7">
         <v>167.0</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>258</v>
+        <v>384</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="7">
         <v>1436.0</v>
       </c>
+      <c r="E168" s="9" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="7">
         <v>168.0</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>259</v>
+        <v>386</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="7">
         <v>1512.0</v>
       </c>
+      <c r="E169" s="9" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="7">
         <v>169.0</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>260</v>
+        <v>388</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="7">
         <v>287.0</v>
       </c>
+      <c r="E170" s="9" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="7">
         <v>170.0</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="7">
         <v>336.0</v>
       </c>
+      <c r="E171" s="9" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="7">
         <v>171.0</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>262</v>
+        <v>392</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="7">
         <v>4507.0</v>
       </c>
+      <c r="E172" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="7">
         <v>172.0</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="7">
         <v>4301.0</v>
       </c>
+      <c r="E173" s="9" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="7">
         <v>173.0</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>264</v>
+        <v>397</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174" s="7">
         <v>2271.0</v>
       </c>
+      <c r="E174" s="9" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="7">
         <v>174.0</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>265</v>
+        <v>399</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="7">
         <v>413.0</v>
       </c>
+      <c r="E175" s="9" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="7">
         <v>175.0</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>266</v>
+        <v>401</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="7">
         <v>2230.0</v>
       </c>
+      <c r="E176" s="9" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="7">
         <v>176.0</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>267</v>
+        <v>403</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="7">
         <v>2628.0</v>
       </c>
+      <c r="E177" s="9" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="7">
         <v>177.0</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>268</v>
+        <v>405</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="7">
         <v>2497.0</v>
       </c>
+      <c r="E178" s="9" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="7">
         <v>178.0</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>269</v>
+        <v>407</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>270</v>
+        <v>408</v>
       </c>
       <c r="D179" s="7">
         <v>2172.0</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="180">
@@ -3594,149 +4663,194 @@
         <v>179.0</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>271</v>
+        <v>410</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="7">
         <v>1673.0</v>
       </c>
+      <c r="E180" s="9" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="7">
         <v>180.0</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="7">
         <v>1544.0</v>
       </c>
+      <c r="E181" s="9" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="7">
         <v>181.0</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>273</v>
+        <v>414</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="7">
         <v>1930.0</v>
       </c>
+      <c r="E182" s="9" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="7">
         <v>182.0</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>274</v>
+        <v>416</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183" s="7">
         <v>7221.0</v>
       </c>
+      <c r="E183" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="7">
         <v>183.0</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>275</v>
+        <v>419</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184" s="7">
         <v>4029.0</v>
       </c>
+      <c r="E184" s="9" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="7">
         <v>184.0</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>276</v>
+        <v>421</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="7">
         <v>21793.0</v>
       </c>
+      <c r="E185" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="7">
         <v>185.0</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>277</v>
+        <v>424</v>
       </c>
       <c r="C186" s="8"/>
       <c r="D186" s="7">
         <v>9371.0</v>
       </c>
+      <c r="E186" s="9" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="7">
         <v>186.0</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>278</v>
+        <v>426</v>
       </c>
       <c r="C187" s="8"/>
       <c r="D187" s="7">
         <v>7041.0</v>
       </c>
+      <c r="E187" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="7">
         <v>187.0</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>279</v>
+        <v>429</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="7">
         <v>7824.0</v>
       </c>
+      <c r="E188" s="9" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="7">
         <v>188.0</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>280</v>
+        <v>431</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="7">
         <v>2180.0</v>
       </c>
+      <c r="E189" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="7">
         <v>189.0</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>281</v>
+        <v>434</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="7">
         <v>3048.0</v>
       </c>
+      <c r="E190" s="9" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="7">
         <v>190.0</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>282</v>
+        <v>436</v>
       </c>
       <c r="C191" s="8"/>
       <c r="D191" s="7">
         <v>1411.0</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>283</v>
+        <v>437</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>284</v>
+        <v>438</v>
       </c>
     </row>
     <row r="192">
@@ -3744,277 +4858,361 @@
         <v>191.0</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>285</v>
+        <v>439</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="7">
         <v>3763.0</v>
       </c>
+      <c r="E192" s="9" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="7">
         <v>192.0</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>286</v>
+        <v>441</v>
       </c>
       <c r="C193" s="8"/>
       <c r="D193" s="7">
         <v>2523.0</v>
       </c>
+      <c r="E193" s="9" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="7">
         <v>193.0</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>287</v>
+        <v>443</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="7">
         <v>2145.0</v>
       </c>
+      <c r="E194" s="9" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="7">
         <v>194.0</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>288</v>
+        <v>445</v>
       </c>
       <c r="C195" s="8"/>
       <c r="D195" s="7">
         <v>2523.0</v>
       </c>
+      <c r="E195" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="7">
         <v>195.0</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="C196" s="8"/>
       <c r="D196" s="7">
         <v>572.0</v>
       </c>
+      <c r="E196" s="9" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="7">
         <v>196.0</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="7">
         <v>613.0</v>
       </c>
+      <c r="E197" s="9" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="7">
         <v>197.0</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>291</v>
+        <v>452</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="7">
         <v>4190.0</v>
       </c>
+      <c r="E198" s="9" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="7">
         <v>198.0</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>292</v>
+        <v>454</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="7">
         <v>292.0</v>
       </c>
+      <c r="E199" s="9" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="7">
         <v>199.0</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>293</v>
+        <v>456</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="7">
         <v>336.0</v>
       </c>
+      <c r="E200" s="9" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="7">
         <v>200.0</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>294</v>
+        <v>457</v>
       </c>
       <c r="C201" s="8"/>
       <c r="D201" s="7">
         <v>347.0</v>
       </c>
+      <c r="E201" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="7">
         <v>201.0</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>295</v>
+        <v>460</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="7">
         <v>547.0</v>
       </c>
+      <c r="E202" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="7">
         <v>202.0</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>296</v>
+        <v>463</v>
       </c>
       <c r="C203" s="8"/>
       <c r="D203" s="7">
         <v>132.0</v>
       </c>
+      <c r="E203" s="9" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="7">
         <v>203.0</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>297</v>
+        <v>465</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="7">
         <v>210.0</v>
       </c>
+      <c r="E204" s="9" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="7">
         <v>204.0</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>298</v>
+        <v>467</v>
       </c>
       <c r="C205" s="8"/>
       <c r="D205" s="7">
         <v>865.0</v>
       </c>
+      <c r="E205" s="9" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="7">
         <v>205.0</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="7">
         <v>1666.0</v>
       </c>
+      <c r="E206" s="9" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="7">
         <v>206.0</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>300</v>
+        <v>471</v>
       </c>
       <c r="C207" s="8"/>
       <c r="D207" s="7">
         <v>1782.0</v>
       </c>
+      <c r="E207" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="7">
         <v>207.0</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>301</v>
+        <v>474</v>
       </c>
       <c r="C208" s="8"/>
       <c r="D208" s="7">
         <v>6792.0</v>
       </c>
+      <c r="E208" s="9" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="7">
         <v>208.0</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>302</v>
+        <v>476</v>
       </c>
       <c r="C209" s="8"/>
       <c r="D209" s="7">
         <v>3366.0</v>
       </c>
+      <c r="E209" s="9" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="7">
         <v>209.0</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="7">
         <v>383.0</v>
       </c>
+      <c r="E210" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="7">
         <v>210.0</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>304</v>
+        <v>480</v>
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="7">
         <v>748.0</v>
       </c>
+      <c r="E211" s="9" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="7">
         <v>211.0</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>305</v>
+        <v>482</v>
       </c>
       <c r="C212" s="8"/>
       <c r="D212" s="7">
         <v>2818.0</v>
       </c>
+      <c r="E212" s="9" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="7">
         <v>212.0</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>306</v>
+        <v>484</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="7">
         <v>1436.0</v>
       </c>
+      <c r="E213" s="9" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="7">
         <v>213.0</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>307</v>
+        <v>486</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>308</v>
+        <v>487</v>
       </c>
       <c r="D214" s="7">
         <v>606.0</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="215">
@@ -4022,253 +5220,349 @@
         <v>214.0</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>309</v>
+        <v>490</v>
       </c>
       <c r="C215" s="8"/>
       <c r="D215" s="7">
         <v>8856.0</v>
       </c>
+      <c r="E215" s="9" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="7">
         <v>215.0</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>310</v>
+        <v>492</v>
       </c>
       <c r="C216" s="8"/>
       <c r="D216" s="7">
         <v>2925.0</v>
       </c>
+      <c r="E216" s="9" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="7">
         <v>216.0</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>311</v>
+        <v>494</v>
       </c>
       <c r="C217" s="8"/>
       <c r="D217" s="7">
         <v>267.0</v>
       </c>
+      <c r="E217" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="7">
         <v>217.0</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>312</v>
+        <v>497</v>
       </c>
       <c r="C218" s="8"/>
       <c r="D218" s="7">
         <v>1069.0</v>
       </c>
+      <c r="E218" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="7">
         <v>218.0</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>313</v>
+        <v>499</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="7">
         <v>534.0</v>
       </c>
+      <c r="E219" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="7">
         <v>219.0</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>314</v>
+        <v>501</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="7">
         <v>855.0</v>
       </c>
+      <c r="E220" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="7">
         <v>220.0</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>315</v>
+        <v>503</v>
       </c>
       <c r="C221" s="8"/>
       <c r="D221" s="7">
         <v>713.0</v>
       </c>
+      <c r="E221" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="7">
         <v>221.0</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>316</v>
+        <v>505</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="7">
         <v>4276.0</v>
       </c>
+      <c r="E222" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="7">
         <v>222.0</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>317</v>
+        <v>507</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="7">
         <v>214.0</v>
       </c>
+      <c r="E223" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="7">
         <v>223.0</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>318</v>
+        <v>509</v>
       </c>
       <c r="C224" s="8"/>
       <c r="D224" s="7">
         <v>267.0</v>
       </c>
+      <c r="E224" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="7">
         <v>224.0</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>319</v>
+        <v>511</v>
       </c>
       <c r="C225" s="8"/>
       <c r="D225" s="7">
         <v>195.0</v>
       </c>
+      <c r="E225" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="7">
         <v>225.0</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>320</v>
+        <v>514</v>
       </c>
       <c r="C226" s="8"/>
       <c r="D226" s="7">
         <v>126505.0</v>
       </c>
+      <c r="E226" s="9" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="7">
         <v>226.0</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>321</v>
+        <v>516</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="7">
         <v>9280.0</v>
       </c>
+      <c r="E227" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="7">
         <v>227.0</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>322</v>
+        <v>518</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="7">
         <v>4918.0</v>
       </c>
+      <c r="E228" s="9" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="7">
         <v>228.0</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>323</v>
+        <v>520</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="7">
         <v>235.0</v>
       </c>
+      <c r="E229" s="9" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="7">
         <v>229.0</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>324</v>
+        <v>522</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="7">
         <v>1827.0</v>
       </c>
+      <c r="E230" s="9" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="7">
         <v>230.0</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>325</v>
+        <v>524</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="7">
         <v>1849.0</v>
       </c>
+      <c r="E231" s="9" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="7">
         <v>231.0</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>326</v>
+        <v>526</v>
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="7">
         <v>4189.0</v>
       </c>
+      <c r="E232" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="7">
         <v>232.0</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>327</v>
+        <v>529</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="7">
         <v>2036.0</v>
       </c>
+      <c r="E233" s="9" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="7">
         <v>233.0</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>328</v>
+        <v>531</v>
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="7">
         <v>1436.0</v>
       </c>
+      <c r="E234" s="9" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="7">
         <v>234.0</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>329</v>
+        <v>533</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>330</v>
+        <v>534</v>
       </c>
       <c r="D235" s="7">
         <v>869.0</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="236">
@@ -4276,11 +5570,14 @@
         <v>235.0</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>331</v>
+        <v>537</v>
       </c>
       <c r="C236" s="8"/>
       <c r="D236" s="7">
         <v>343.0</v>
+      </c>
+      <c r="E236" s="9" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="237">

--- a/Data/source/Russian/Water footprint (Russian).xlsx
+++ b/Data/source/Russian/Water footprint (Russian).xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="543">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Product</t>
   </si>
@@ -34,25 +37,25 @@
     <t>Abaca fibre</t>
   </si>
   <si>
-    <t>Абака (волокно)</t>
+    <t>Абака, волокно</t>
   </si>
   <si>
     <t>Agave fibres</t>
   </si>
   <si>
-    <t>Агава (волокно)</t>
+    <t>Агава, волокно</t>
   </si>
   <si>
     <t>Almonds, shelled or peeled</t>
   </si>
   <si>
-    <t xml:space="preserve">Миндаль без скорлупы </t>
+    <t>Миндаль без кожуры</t>
   </si>
   <si>
     <t>Almonds, with shell</t>
   </si>
   <si>
-    <t>Миндаль в скорлупе</t>
+    <t>Миндаль в кожуре</t>
   </si>
   <si>
     <t>Anise</t>
@@ -247,7 +250,7 @@
     <t>Carobs</t>
   </si>
   <si>
-    <t xml:space="preserve">Рожковое дерево (бобы) </t>
+    <t>Рожковое дерево, бобы</t>
   </si>
   <si>
     <t>Carrots</t>
@@ -274,7 +277,7 @@
     <t>Cassava flour</t>
   </si>
   <si>
-    <t>Мука маниока</t>
+    <t>Маниок, мука</t>
   </si>
   <si>
     <t>Кассава</t>
@@ -292,7 +295,7 @@
     <t>Castor oil seeds</t>
   </si>
   <si>
-    <t>Семена клещевины</t>
+    <t>Клещевина, семена</t>
   </si>
   <si>
     <t>Cauliflowers</t>
@@ -319,7 +322,7 @@
     <t>Chestnuts</t>
   </si>
   <si>
-    <t>Каштан (плоды)</t>
+    <t>Каштан, плоды</t>
   </si>
   <si>
     <t>Chick peas</t>
@@ -367,7 +370,7 @@
     <t>Canella</t>
   </si>
   <si>
-    <t>Корица (пряность)</t>
+    <t>Корица, пряность</t>
   </si>
   <si>
     <t>Clementine</t>
@@ -379,7 +382,7 @@
     <t>Cloves</t>
   </si>
   <si>
-    <t>Гвоздика (пряность)</t>
+    <t>Гвоздика, пряность</t>
   </si>
   <si>
     <t>Cocoa beans</t>
@@ -433,12 +436,15 @@
     <t>Coconuts, dehusked</t>
   </si>
   <si>
-    <t>Кокосы</t>
+    <t>Кокосы очищенные</t>
   </si>
   <si>
     <t>Coconuts, with husk</t>
   </si>
   <si>
+    <t>Кокосы в кожуре</t>
+  </si>
+  <si>
     <t>Coffee, green</t>
   </si>
   <si>
@@ -559,7 +565,7 @@
     <t>Aubergines</t>
   </si>
   <si>
-    <t>Баклажа́н</t>
+    <t>Баклажан</t>
   </si>
   <si>
     <t>Паслён темноплодный, бадриджа́н</t>
@@ -724,13 +730,13 @@
     <t>Hop cones</t>
   </si>
   <si>
-    <t>Хмель (шишки)</t>
+    <t>Хмель, шишки</t>
   </si>
   <si>
     <t>Hop extract</t>
   </si>
   <si>
-    <t>Хмель (экстракт)</t>
+    <t>Хмель, экстракт</t>
   </si>
   <si>
     <t>Jute</t>
@@ -1054,7 +1060,7 @@
     <t>Palm nuts and kernels</t>
   </si>
   <si>
-    <t>Пальмовое ядра и семена</t>
+    <t>Пальмовые ядра и семена</t>
   </si>
   <si>
     <t>Palm oil</t>
@@ -1183,6 +1189,9 @@
     <t>Картофель</t>
   </si>
   <si>
+    <t>Картошка</t>
+  </si>
+  <si>
     <t>Pumpkins</t>
   </si>
   <si>
@@ -1447,6 +1456,9 @@
     <t>Подсолнечник, семена</t>
   </si>
   <si>
+    <t>Семечки</t>
+  </si>
+  <si>
     <t>Sweet potatoes</t>
   </si>
   <si>
@@ -1564,13 +1576,13 @@
     <t>Walnuts, shelled or peeled</t>
   </si>
   <si>
-    <t>Грецкий орех, без скорлупы</t>
+    <t>Грецкий орех очищенный</t>
   </si>
   <si>
     <t>Walnuts, with shell</t>
   </si>
   <si>
-    <t>Грецкий орех, в скорлупе</t>
+    <t>Грецкий орех в скорлупе</t>
   </si>
   <si>
     <t>Watermelons</t>
@@ -1739,21 +1751,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1783,13 +1797,13 @@
       <c r="B2" s="5"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1819,14 +1833,14 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7">
         <v>22654.0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1834,14 +1848,14 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="7">
         <v>6549.0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1849,14 +1863,14 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="7">
         <v>16095.0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1864,14 +1878,14 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7">
         <v>8047.0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1879,14 +1893,14 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7">
         <v>8280.0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1894,14 +1908,14 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="7">
         <v>1141.0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1909,14 +1923,14 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="7">
         <v>6847.0</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1924,14 +1938,14 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="7">
         <v>822.0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1939,14 +1953,14 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="7">
         <v>1287.0</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1954,14 +1968,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="7">
         <v>11165.0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1969,14 +1983,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="7">
         <v>818.0</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -1984,14 +1998,14 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="7">
         <v>2150.0</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1999,14 +2013,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="7">
         <v>1981.0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2014,17 +2028,17 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7">
         <v>8280.0</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -2032,14 +2046,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7">
         <v>790.0</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -2047,14 +2061,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="7">
         <v>1423.0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -2062,14 +2076,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="7">
         <v>1977.0</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2077,14 +2091,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="7">
         <v>5053.0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
@@ -2092,14 +2106,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7">
         <v>561.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -2107,19 +2121,19 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7">
         <v>15415.0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -2127,14 +2141,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="7">
         <v>298.0</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -2142,14 +2156,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="7">
         <v>845.0</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -2157,14 +2171,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="7">
         <v>1608.0</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -2172,19 +2186,19 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7">
         <v>2018.0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -2192,17 +2206,17 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7">
         <v>285.0</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -2210,14 +2224,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="7">
         <v>285.0</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -2225,17 +2239,17 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="7">
         <v>3142.0</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -2243,14 +2257,14 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="7">
         <v>5553.0</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -2258,17 +2272,17 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="7">
         <v>280.0</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -2276,17 +2290,17 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="7">
         <v>527.0</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -2294,14 +2308,14 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="7">
         <v>34319.0</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -2309,14 +2323,14 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="7">
         <v>5594.0</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -2324,14 +2338,14 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="7">
         <v>195.0</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -2339,14 +2353,14 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7">
         <v>3793.0</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -2354,17 +2368,17 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7">
         <v>14218.0</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
@@ -2372,17 +2386,17 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="7">
         <v>1878.0</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -2390,17 +2404,17 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="7">
         <v>24740.0</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -2408,17 +2422,17 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="7">
         <v>9896.0</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -2426,14 +2440,14 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="7">
         <v>285.0</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -2441,14 +2455,14 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="7">
         <v>5060.0</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -2456,17 +2470,17 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="7">
         <v>1604.0</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -2474,14 +2488,14 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="7">
         <v>2750.0</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -2489,17 +2503,17 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="7">
         <v>4177.0</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -2507,17 +2521,17 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="7">
         <v>4325.0</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -2525,17 +2539,17 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="7">
         <v>7365.0</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -2543,17 +2557,17 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="7">
         <v>379.0</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -2561,14 +2575,14 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="7">
         <v>17196.0</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50">
@@ -2576,16 +2590,16 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D50" s="7">
         <v>15526.0</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -2593,14 +2607,14 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="7">
         <v>748.0</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -2608,14 +2622,14 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="7">
         <v>61205.0</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -2623,14 +2637,14 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="7">
         <v>19928.0</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
@@ -2638,14 +2652,14 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="7">
         <v>33938.0</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -2653,14 +2667,14 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="7">
         <v>24238.0</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -2668,14 +2682,14 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="7">
         <v>15636.0</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
@@ -2683,19 +2697,19 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D57" s="7">
         <v>2449.0</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -2703,19 +2717,19 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D58" s="7">
         <v>4490.0</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
@@ -2723,14 +2737,14 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="7">
         <v>2687.0</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60">
@@ -2738,14 +2752,14 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="7">
         <v>1256.0</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
@@ -2753,14 +2767,14 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="7">
         <v>15897.0</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62">
@@ -2768,14 +2782,14 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="7">
         <v>18925.0</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63">
@@ -2783,14 +2797,14 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="7">
         <v>2093.0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -2798,14 +2812,14 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="7">
         <v>8280.0</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65">
@@ -2813,14 +2827,14 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="7">
         <v>8280.0</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66">
@@ -2828,14 +2842,14 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="7">
         <v>9982.0</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67">
@@ -2843,38 +2857,44 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="7">
         <v>9113.0</v>
       </c>
+      <c r="E67" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="7">
         <v>66.0</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="7">
         <v>2602.0</v>
       </c>
+      <c r="E68" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="7">
         <v>67.0</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="7">
         <v>1332.0</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70">
@@ -2882,17 +2902,17 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="7">
         <v>3957.0</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71">
@@ -2900,17 +2920,17 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="7">
         <v>6906.0</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72">
@@ -2918,14 +2938,14 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="7">
         <v>276.0</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73">
@@ -2933,14 +2953,14 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="7">
         <v>353.0</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74">
@@ -2948,17 +2968,17 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="7">
         <v>499.0</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75">
@@ -2966,17 +2986,17 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="7">
         <v>2277.0</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76">
@@ -2984,17 +3004,17 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="7">
         <v>1610.0</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77">
@@ -3002,17 +3022,17 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="7">
         <v>1849.0</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78">
@@ -3020,14 +3040,14 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="7">
         <v>3265.0</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79">
@@ -3035,19 +3055,19 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D79" s="7">
         <v>362.0</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80">
@@ -3055,17 +3075,17 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="7">
         <v>8280.0</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81">
@@ -3073,17 +3093,17 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="7">
         <v>3350.0</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82">
@@ -3091,14 +3111,14 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="7">
         <v>3783.0</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F82" s="9"/>
     </row>
@@ -3107,14 +3127,14 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="7">
         <v>1782.0</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84">
@@ -3122,14 +3142,14 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="7">
         <v>589.0</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -3137,14 +3157,14 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="7">
         <v>2265.0</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -3152,14 +3172,14 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="7">
         <v>353.0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -3167,14 +3187,14 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="7">
         <v>1657.0</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -3182,16 +3202,16 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D88" s="7">
         <v>5521.0</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -3199,14 +3219,14 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="7">
         <v>526.0</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -3214,17 +3234,17 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="7">
         <v>336.0</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91">
@@ -3232,14 +3252,14 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="7">
         <v>506.0</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
@@ -3247,14 +3267,14 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="7">
         <v>675.0</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93">
@@ -3262,14 +3282,14 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="7">
         <v>608.0</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94">
@@ -3277,14 +3297,14 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="7">
         <v>2433.0</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95">
@@ -3292,17 +3312,17 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="7">
         <v>7529.0</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96">
@@ -3310,17 +3330,17 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="7">
         <v>2782.0</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97">
@@ -3328,17 +3348,17 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="7">
         <v>3974.0</v>
       </c>
       <c r="E97" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F97" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="98">
@@ -3346,14 +3366,14 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="7">
         <v>1800.0</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99">
@@ -3361,17 +3381,17 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="7">
         <v>10515.0</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100">
@@ -3379,17 +3399,17 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="7">
         <v>5258.0</v>
       </c>
       <c r="E100" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="101">
@@ -3397,14 +3417,14 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="7">
         <v>2447.0</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102">
@@ -3412,14 +3432,14 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="7">
         <v>3685.0</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103">
@@ -3427,14 +3447,14 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="7">
         <v>4065.0</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104">
@@ -3442,14 +3462,14 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="7">
         <v>16259.0</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105">
@@ -3457,14 +3477,14 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="7">
         <v>2605.0</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106">
@@ -3472,14 +3492,14 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="7">
         <v>514.0</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107">
@@ -3487,14 +3507,14 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="7">
         <v>23391.0</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108">
@@ -3502,19 +3522,19 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D108" s="7">
         <v>10412.0</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109">
@@ -3522,14 +3542,14 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="7">
         <v>17093.0</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110">
@@ -3537,14 +3557,14 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="7">
         <v>642.0</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111">
@@ -3552,14 +3572,14 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="7">
         <v>5874.0</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112">
@@ -3567,14 +3587,14 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="7">
         <v>237.0</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113">
@@ -3582,14 +3602,14 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="7">
         <v>642.0</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114">
@@ -3597,14 +3617,14 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="7">
         <v>5168.0</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115">
@@ -3612,14 +3632,14 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="7">
         <v>9415.0</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116">
@@ -3627,19 +3647,19 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D116" s="7">
         <v>1222.0</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117">
@@ -3647,19 +3667,19 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D117" s="7">
         <v>1253.0</v>
       </c>
       <c r="E117" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="118">
@@ -3667,19 +3687,19 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D118" s="7">
         <v>1081.0</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119">
@@ -3687,19 +3707,19 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D119" s="7">
         <v>2575.0</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120">
@@ -3707,19 +3727,19 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D120" s="7">
         <v>1671.0</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121">
@@ -3727,16 +3747,16 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D121" s="7">
         <v>700.0</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122">
@@ -3744,14 +3764,14 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="7">
         <v>1950.0</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123">
@@ -3759,14 +3779,14 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="7">
         <v>2437.0</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124">
@@ -3774,14 +3794,14 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="7">
         <v>748.0</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125">
@@ -3789,14 +3809,14 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="7">
         <v>1800.0</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126">
@@ -3804,17 +3824,17 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="7">
         <v>1800.0</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127">
@@ -3822,16 +3842,16 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D127" s="7">
         <v>20388.0</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128">
@@ -3839,19 +3859,19 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D128" s="7">
         <v>564.0</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129">
@@ -3859,19 +3879,19 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="D129" s="7">
         <v>2254.0</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130">
@@ -3879,14 +3899,14 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="7">
         <v>5184.0</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131">
@@ -3894,14 +3914,14 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="7">
         <v>1020.0</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132">
@@ -3909,14 +3929,14 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="7">
         <v>4745.0</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133">
@@ -3924,14 +3944,14 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="7">
         <v>4478.0</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134">
@@ -3939,14 +3959,14 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="7">
         <v>2809.0</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135">
@@ -3954,17 +3974,17 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="7">
         <v>13748.0</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136">
@@ -3972,14 +3992,14 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="7">
         <v>910.0</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137">
@@ -3987,16 +4007,16 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D137" s="7">
         <v>34319.0</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138">
@@ -4004,14 +4024,14 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="7">
         <v>2536.0</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139">
@@ -4019,14 +4039,14 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="7">
         <v>1788.0</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140">
@@ -4034,14 +4054,14 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="7">
         <v>2416.0</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141">
@@ -4049,17 +4069,17 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="7">
         <v>1098.0</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142">
@@ -4067,17 +4087,17 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="7">
         <v>576.0</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143">
@@ -4085,14 +4105,14 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="7">
         <v>14726.0</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144">
@@ -4100,14 +4120,14 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="7">
         <v>14431.0</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145">
@@ -4115,14 +4135,14 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="7">
         <v>3015.0</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146">
@@ -4130,14 +4150,14 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="7">
         <v>345.0</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147">
@@ -4145,19 +4165,19 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D147" s="7">
         <v>272.0</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148">
@@ -4165,14 +4185,14 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="7">
         <v>1018.0</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149">
@@ -4180,14 +4200,14 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="7">
         <v>560.0</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150">
@@ -4195,16 +4215,16 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D150" s="7">
         <v>5401.0</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151">
@@ -4212,14 +4232,14 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="7">
         <v>2868.0</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="152">
@@ -4227,14 +4247,14 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="7">
         <v>4971.0</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153">
@@ -4242,17 +4262,17 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="7">
         <v>460.0</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154">
@@ -4260,14 +4280,14 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="7">
         <v>910.0</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155">
@@ -4275,14 +4295,14 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="7">
         <v>922.0</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="156">
@@ -4290,14 +4310,14 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="7">
         <v>1979.0</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="157">
@@ -4305,1279 +4325,1288 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="7">
         <v>595.0</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="7">
-        <v>157.0</v>
+        <v>156.0</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="7">
         <v>288.0</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="7">
-        <v>158.0</v>
+        <v>157.0</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="7">
         <v>5494.0</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="7">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="7">
         <v>1273.0</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="7">
-        <v>160.0</v>
+        <v>159.0</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="7">
         <v>255.0</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="7">
-        <v>161.0</v>
+        <v>160.0</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="7">
         <v>11363.0</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="7">
-        <v>162.0</v>
+        <v>161.0</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="7">
         <v>1602.0</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="7">
-        <v>163.0</v>
+        <v>162.0</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="7">
         <v>2180.0</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="7">
-        <v>164.0</v>
+        <v>163.0</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="7">
         <v>2188.0</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="7">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D166" s="7">
         <v>5988.0</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="7">
-        <v>166.0</v>
+        <v>165.0</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="7">
         <v>1044.0</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="7">
-        <v>167.0</v>
+        <v>166.0</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="7">
         <v>1436.0</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7">
-        <v>168.0</v>
+        <v>167.0</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="7">
         <v>1512.0</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="7">
-        <v>169.0</v>
+        <v>168.0</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="7">
         <v>287.0</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="7">
-        <v>170.0</v>
+        <v>169.0</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="7">
         <v>336.0</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="7">
-        <v>171.0</v>
+        <v>170.0</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="7">
         <v>4507.0</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="7">
         <v>4301.0</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="7">
-        <v>173.0</v>
+        <v>172.0</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174" s="7">
         <v>2271.0</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="7">
-        <v>174.0</v>
+        <v>173.0</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="7">
         <v>413.0</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="7">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="7">
         <v>2230.0</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7">
-        <v>176.0</v>
+        <v>175.0</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="7">
         <v>2628.0</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="7">
-        <v>177.0</v>
+        <v>176.0</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="7">
         <v>2497.0</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="7">
-        <v>178.0</v>
+        <v>177.0</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D179" s="7">
         <v>2172.0</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="7">
-        <v>179.0</v>
+        <v>178.0</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="7">
         <v>1673.0</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="7">
-        <v>180.0</v>
+        <v>179.0</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="7">
         <v>1544.0</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="7">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="7">
         <v>1930.0</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="7">
-        <v>182.0</v>
+        <v>181.0</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183" s="7">
         <v>7221.0</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="7">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184" s="7">
         <v>4029.0</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="7">
-        <v>184.0</v>
+        <v>183.0</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="7">
         <v>21793.0</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="7">
-        <v>185.0</v>
+        <v>184.0</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C186" s="8"/>
       <c r="D186" s="7">
         <v>9371.0</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="7">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C187" s="8"/>
       <c r="D187" s="7">
         <v>7041.0</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="7">
-        <v>187.0</v>
+        <v>186.0</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="7">
         <v>7824.0</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="7">
-        <v>188.0</v>
+        <v>187.0</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="7">
         <v>2180.0</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="7">
-        <v>189.0</v>
+        <v>188.0</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="7">
         <v>3048.0</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="7">
-        <v>190.0</v>
+        <v>189.0</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C191" s="8"/>
       <c r="D191" s="7">
         <v>1411.0</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="7">
-        <v>191.0</v>
+        <v>190.0</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="7">
         <v>3763.0</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="7">
-        <v>192.0</v>
+        <v>191.0</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C193" s="8"/>
       <c r="D193" s="7">
         <v>2523.0</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="7">
-        <v>193.0</v>
+        <v>192.0</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="7">
         <v>2145.0</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="7">
-        <v>194.0</v>
+        <v>193.0</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C195" s="8"/>
       <c r="D195" s="7">
         <v>2523.0</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="7">
-        <v>195.0</v>
+        <v>194.0</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C196" s="8"/>
       <c r="D196" s="7">
         <v>572.0</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="7">
-        <v>196.0</v>
+        <v>195.0</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="7">
         <v>613.0</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="7">
-        <v>197.0</v>
+        <v>196.0</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="7">
         <v>4190.0</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="7">
-        <v>198.0</v>
+        <v>197.0</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="7">
         <v>292.0</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="7">
-        <v>199.0</v>
+        <v>198.0</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="7">
         <v>336.0</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="7">
-        <v>200.0</v>
+        <v>199.0</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C201" s="8"/>
       <c r="D201" s="7">
         <v>347.0</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="7">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="7">
         <v>547.0</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="7">
-        <v>202.0</v>
+        <v>201.0</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C203" s="8"/>
       <c r="D203" s="7">
         <v>132.0</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="7">
-        <v>203.0</v>
+        <v>202.0</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="7">
         <v>210.0</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="7">
-        <v>204.0</v>
+        <v>203.0</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C205" s="8"/>
       <c r="D205" s="7">
         <v>865.0</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="7">
-        <v>205.0</v>
+        <v>204.0</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="7">
         <v>1666.0</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="7">
-        <v>206.0</v>
+        <v>205.0</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C207" s="8"/>
       <c r="D207" s="7">
         <v>1782.0</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="7">
-        <v>207.0</v>
+        <v>206.0</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C208" s="8"/>
       <c r="D208" s="7">
         <v>6792.0</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="7">
-        <v>208.0</v>
+        <v>207.0</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C209" s="8"/>
       <c r="D209" s="7">
         <v>3366.0</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>477</v>
+        <v>480</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="7">
-        <v>209.0</v>
+        <v>208.0</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="7">
         <v>383.0</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="7">
-        <v>210.0</v>
+        <v>209.0</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="7">
         <v>748.0</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="7">
-        <v>211.0</v>
+        <v>210.0</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C212" s="8"/>
       <c r="D212" s="7">
         <v>2818.0</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>483</v>
+        <v>487</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="7">
-        <v>212.0</v>
+        <v>211.0</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="7">
         <v>1436.0</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="7">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D214" s="7">
         <v>606.0</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="7">
-        <v>214.0</v>
+        <v>213.0</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C215" s="8"/>
       <c r="D215" s="7">
         <v>8856.0</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="7">
-        <v>215.0</v>
+        <v>214.0</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C216" s="8"/>
       <c r="D216" s="7">
         <v>2925.0</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="7">
-        <v>216.0</v>
+        <v>215.0</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C217" s="8"/>
       <c r="D217" s="7">
         <v>267.0</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="7">
-        <v>217.0</v>
+        <v>216.0</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C218" s="8"/>
       <c r="D218" s="7">
         <v>1069.0</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="7">
-        <v>218.0</v>
+        <v>217.0</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="7">
         <v>534.0</v>
       </c>
       <c r="E219" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F219" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="F219" s="9" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="7">
-        <v>219.0</v>
+        <v>218.0</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="7">
         <v>855.0</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="7">
-        <v>220.0</v>
+        <v>219.0</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C221" s="8"/>
       <c r="D221" s="7">
         <v>713.0</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="7">
-        <v>221.0</v>
+        <v>220.0</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="7">
         <v>4276.0</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="7">
-        <v>222.0</v>
+        <v>221.0</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="7">
         <v>214.0</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="7">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C224" s="8"/>
       <c r="D224" s="7">
         <v>267.0</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="7">
-        <v>224.0</v>
+        <v>223.0</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C225" s="8"/>
       <c r="D225" s="7">
         <v>195.0</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="7">
-        <v>225.0</v>
+        <v>224.0</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C226" s="8"/>
       <c r="D226" s="7">
         <v>126505.0</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="7">
-        <v>226.0</v>
+        <v>225.0</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="7">
         <v>9280.0</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="7">
-        <v>227.0</v>
+        <v>226.0</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="7">
         <v>4918.0</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="7">
-        <v>228.0</v>
+        <v>227.0</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="7">
         <v>235.0</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="7">
-        <v>229.0</v>
+        <v>228.0</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="7">
         <v>1827.0</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="7">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="7">
         <v>1849.0</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="7">
-        <v>231.0</v>
+        <v>230.0</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="7">
         <v>4189.0</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="7">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="7">
         <v>2036.0</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="7">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="7">
         <v>1436.0</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="7">
-        <v>234.0</v>
+        <v>233.0</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D235" s="7">
         <v>869.0</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F235" s="9" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="7">
-        <v>235.0</v>
+        <v>234.0</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C236" s="8"/>
       <c r="D236" s="7">
         <v>343.0</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="237">

--- a/Data/source/Russian/Water footprint (Russian).xlsx
+++ b/Data/source/Russian/Water footprint (Russian).xlsx
@@ -133,7 +133,7 @@
     <t>Бадьян</t>
   </si>
   <si>
-    <t>Анис звёздчатый</t>
+    <t>Анис звездчатый</t>
   </si>
   <si>
     <t>Eggplants</t>
@@ -145,7 +145,7 @@
     <t>Баклажан</t>
   </si>
   <si>
-    <t>Паслён темноплодный, бадриджа́н</t>
+    <t>Паслён темноплодный, бадриджан</t>
   </si>
   <si>
     <t>Okra</t>
@@ -613,7 +613,7 @@
     <t>Coffee, roasted</t>
   </si>
   <si>
-    <t>Кофе обжареный</t>
+    <t>Кофе обжаренный</t>
   </si>
   <si>
     <t>Gooseberries</t>
@@ -670,7 +670,7 @@
     <t>Кунжутное масло</t>
   </si>
   <si>
-    <t>Сезамавое</t>
+    <t>Сезамовое</t>
   </si>
   <si>
     <t>Sesame seed</t>
@@ -934,7 +934,7 @@
     <t>Olive oil</t>
   </si>
   <si>
-    <t>Оливковое масло рафинированое (refined)</t>
+    <t>Оливковое масло рафинированное (refined)</t>
   </si>
   <si>
     <t>Palm oil</t>
@@ -1159,7 +1159,7 @@
     <t>Сахар белый</t>
   </si>
   <si>
-    <t>Рафинированый</t>
+    <t>Рафинированный</t>
   </si>
   <si>
     <t>Sugar, raw (beet)</t>
@@ -1745,6 +1745,7 @@
     <col customWidth="1" min="2" max="2" width="24.29"/>
     <col customWidth="1" min="3" max="3" width="17.14"/>
     <col customWidth="1" min="4" max="4" width="25.57"/>
+    <col customWidth="1" min="5" max="5" width="33.29"/>
     <col customWidth="1" min="6" max="6" width="13.43"/>
     <col customWidth="1" min="7" max="7" width="19.43"/>
   </cols>

--- a/Data/source/Russian/Water footprint (Russian).xlsx
+++ b/Data/source/Russian/Water footprint (Russian).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="540">
   <si>
     <t>ID</t>
   </si>
@@ -418,7 +418,7 @@
     <t>Cabbages</t>
   </si>
   <si>
-    <t xml:space="preserve">Капуста кочанная </t>
+    <t>Капуста кочанная</t>
   </si>
   <si>
     <t>Белокочанная</t>
@@ -1304,12 +1304,6 @@
   </si>
   <si>
     <t>Табак</t>
-  </si>
-  <si>
-    <t>Tangerines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тапиока </t>
   </si>
   <si>
     <t>Taro</t>
@@ -5333,69 +5327,72 @@
     </row>
     <row r="186">
       <c r="A186" s="7">
-        <v>209.0</v>
+        <v>212.0</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C186" s="8"/>
+      <c r="C186" s="8" t="s">
+        <v>432</v>
+      </c>
       <c r="D186" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>434</v>
       </c>
       <c r="F186" s="7">
-        <v>748.0</v>
+        <v>606.0</v>
       </c>
       <c r="G186" s="9">
-        <v>184.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="7">
-        <v>212.0</v>
+        <v>218.0</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>434</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C187" s="8"/>
       <c r="D187" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F187" s="7">
-        <v>606.0</v>
+        <v>855.0</v>
       </c>
       <c r="G187" s="9">
-        <v>185.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="7">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F188" s="7">
-        <v>855.0</v>
+        <v>713.0</v>
       </c>
       <c r="G188" s="9">
-        <v>186.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="7">
-        <v>219.0</v>
+        <v>217.0</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>440</v>
@@ -5405,18 +5402,18 @@
         <v>441</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F189" s="7">
-        <v>713.0</v>
+        <v>534.0</v>
       </c>
       <c r="G189" s="9">
-        <v>187.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="7">
-        <v>217.0</v>
+        <v>215.0</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>442</v>
@@ -5426,18 +5423,18 @@
         <v>443</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F190" s="7">
-        <v>534.0</v>
+        <v>267.0</v>
       </c>
       <c r="G190" s="9">
-        <v>188.0</v>
+        <v>189.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="7">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>444</v>
@@ -5447,18 +5444,18 @@
         <v>445</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F191" s="7">
-        <v>267.0</v>
+        <v>1069.0</v>
       </c>
       <c r="G191" s="9">
-        <v>189.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="7">
-        <v>216.0</v>
+        <v>221.0</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>446</v>
@@ -5468,18 +5465,18 @@
         <v>447</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F192" s="7">
-        <v>1069.0</v>
+        <v>214.0</v>
       </c>
       <c r="G192" s="9">
-        <v>190.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="7">
-        <v>221.0</v>
+        <v>220.0</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>448</v>
@@ -5489,18 +5486,18 @@
         <v>449</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F193" s="7">
-        <v>214.0</v>
+        <v>4276.0</v>
       </c>
       <c r="G193" s="9">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="7">
-        <v>220.0</v>
+        <v>222.0</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>450</v>
@@ -5510,18 +5507,18 @@
         <v>451</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F194" s="7">
-        <v>4276.0</v>
+        <v>267.0</v>
       </c>
       <c r="G194" s="9">
-        <v>192.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="7">
-        <v>222.0</v>
+        <v>193.0</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>452</v>
@@ -5531,117 +5528,114 @@
         <v>453</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="F195" s="7">
-        <v>267.0</v>
+        <v>2523.0</v>
       </c>
       <c r="G195" s="9">
-        <v>193.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="7">
-        <v>193.0</v>
+        <v>30.0</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C196" s="8"/>
       <c r="D196" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F196" s="7">
-        <v>2523.0</v>
+        <v>527.0</v>
       </c>
       <c r="G196" s="9">
-        <v>194.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="7">
-        <v>30.0</v>
+        <v>223.0</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F197" s="7">
-        <v>527.0</v>
+        <v>195.0</v>
       </c>
       <c r="G197" s="9">
-        <v>195.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="7">
-        <v>223.0</v>
+        <v>169.0</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="E198" s="9" t="s">
         <v>462</v>
       </c>
       <c r="F198" s="7">
-        <v>195.0</v>
+        <v>336.0</v>
       </c>
       <c r="G198" s="9">
-        <v>196.0</v>
+        <v>197.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="7">
-        <v>169.0</v>
+        <v>198.0</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>463</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F199" s="7">
         <v>336.0</v>
       </c>
       <c r="G199" s="9">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="7">
-        <v>198.0</v>
+        <v>128.0</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F200" s="7">
-        <v>336.0</v>
+        <v>5184.0</v>
       </c>
       <c r="G200" s="9">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="7">
-        <v>128.0</v>
+        <v>187.0</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>466</v>
@@ -5650,79 +5644,79 @@
       <c r="D201" s="9" t="s">
         <v>467</v>
       </c>
+      <c r="E201" s="9" t="s">
+        <v>468</v>
+      </c>
       <c r="F201" s="7">
-        <v>5184.0</v>
+        <v>2180.0</v>
       </c>
       <c r="G201" s="9">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="7">
-        <v>187.0</v>
+        <v>78.0</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F202" s="7">
-        <v>2180.0</v>
+        <v>8280.0</v>
       </c>
       <c r="G202" s="9">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="7">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C203" s="8"/>
       <c r="D203" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F203" s="7">
-        <v>8280.0</v>
+        <v>2277.0</v>
       </c>
       <c r="G203" s="9">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="7">
-        <v>73.0</v>
+        <v>160.0</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="E204" s="9" t="s">
         <v>476</v>
       </c>
       <c r="F204" s="7">
-        <v>2277.0</v>
+        <v>11363.0</v>
       </c>
       <c r="G204" s="9">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="7">
-        <v>160.0</v>
+        <v>81.0</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>477</v>
@@ -5732,15 +5726,15 @@
         <v>478</v>
       </c>
       <c r="F205" s="7">
-        <v>11363.0</v>
+        <v>1782.0</v>
       </c>
       <c r="G205" s="9">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="7">
-        <v>81.0</v>
+        <v>98.0</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>479</v>
@@ -5749,37 +5743,40 @@
       <c r="D206" s="9" t="s">
         <v>480</v>
       </c>
+      <c r="E206" s="9" t="s">
+        <v>481</v>
+      </c>
       <c r="F206" s="7">
-        <v>1782.0</v>
+        <v>5258.0</v>
       </c>
       <c r="G206" s="9">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="7">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C207" s="8"/>
       <c r="D207" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F207" s="7">
-        <v>5258.0</v>
+        <v>10515.0</v>
       </c>
       <c r="G207" s="9">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="7">
-        <v>97.0</v>
+        <v>23.0</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>484</v>
@@ -5788,19 +5785,16 @@
       <c r="D208" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="E208" s="9" t="s">
-        <v>483</v>
-      </c>
       <c r="F208" s="7">
-        <v>10515.0</v>
+        <v>1608.0</v>
       </c>
       <c r="G208" s="9">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="7">
-        <v>23.0</v>
+        <v>68.0</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>486</v>
@@ -5809,37 +5803,37 @@
       <c r="D209" s="9" t="s">
         <v>487</v>
       </c>
+      <c r="E209" s="9" t="s">
+        <v>488</v>
+      </c>
       <c r="F209" s="7">
-        <v>1608.0</v>
+        <v>3957.0</v>
       </c>
       <c r="G209" s="9">
-        <v>207.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="7">
-        <v>68.0</v>
+        <v>182.0</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="E210" s="9" t="s">
         <v>490</v>
       </c>
       <c r="F210" s="7">
-        <v>3957.0</v>
+        <v>4029.0</v>
       </c>
       <c r="G210" s="9">
-        <v>208.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="7">
-        <v>182.0</v>
+        <v>67.0</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>491</v>
@@ -5849,15 +5843,15 @@
         <v>492</v>
       </c>
       <c r="F211" s="7">
-        <v>4029.0</v>
+        <v>1332.0</v>
       </c>
       <c r="G211" s="9">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="7">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>493</v>
@@ -5867,15 +5861,15 @@
         <v>494</v>
       </c>
       <c r="F212" s="7">
-        <v>1332.0</v>
+        <v>9982.0</v>
       </c>
       <c r="G212" s="9">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="7">
-        <v>64.0</v>
+        <v>101.0</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>495</v>
@@ -5885,15 +5879,15 @@
         <v>496</v>
       </c>
       <c r="F213" s="7">
-        <v>9982.0</v>
+        <v>4065.0</v>
       </c>
       <c r="G213" s="9">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="7">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>497</v>
@@ -5903,15 +5897,15 @@
         <v>498</v>
       </c>
       <c r="F214" s="7">
-        <v>4065.0</v>
+        <v>16259.0</v>
       </c>
       <c r="G214" s="9">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="7">
-        <v>102.0</v>
+        <v>39.0</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>499</v>
@@ -5921,15 +5915,15 @@
         <v>500</v>
       </c>
       <c r="F215" s="7">
-        <v>16259.0</v>
+        <v>285.0</v>
       </c>
       <c r="G215" s="9">
-        <v>213.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="7">
-        <v>39.0</v>
+        <v>213.0</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>501</v>
@@ -5939,15 +5933,15 @@
         <v>502</v>
       </c>
       <c r="F216" s="7">
-        <v>285.0</v>
+        <v>8856.0</v>
       </c>
       <c r="G216" s="9">
-        <v>214.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="7">
-        <v>213.0</v>
+        <v>41.0</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>503</v>
@@ -5956,37 +5950,37 @@
       <c r="D217" s="9" t="s">
         <v>504</v>
       </c>
+      <c r="E217" s="9" t="s">
+        <v>505</v>
+      </c>
       <c r="F217" s="7">
-        <v>8856.0</v>
+        <v>1604.0</v>
       </c>
       <c r="G217" s="9">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="7">
-        <v>41.0</v>
+        <v>22.0</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C218" s="8"/>
       <c r="D218" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="E218" s="9" t="s">
         <v>507</v>
       </c>
       <c r="F218" s="7">
-        <v>1604.0</v>
+        <v>845.0</v>
       </c>
       <c r="G218" s="9">
-        <v>216.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="7">
-        <v>22.0</v>
+        <v>82.0</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>508</v>
@@ -5996,56 +5990,56 @@
         <v>509</v>
       </c>
       <c r="F219" s="7">
-        <v>845.0</v>
+        <v>589.0</v>
       </c>
       <c r="G219" s="9">
-        <v>217.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="7">
-        <v>82.0</v>
+        <v>145.0</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="C220" s="8"/>
+      <c r="C220" s="8" t="s">
+        <v>511</v>
+      </c>
       <c r="D220" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>513</v>
       </c>
       <c r="F220" s="7">
-        <v>589.0</v>
+        <v>272.0</v>
       </c>
       <c r="G220" s="9">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="7">
-        <v>145.0</v>
+        <v>144.0</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>513</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C221" s="8"/>
       <c r="D221" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="E221" s="9" t="s">
         <v>515</v>
       </c>
       <c r="F221" s="7">
-        <v>272.0</v>
+        <v>345.0</v>
       </c>
       <c r="G221" s="9">
-        <v>219.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="7">
-        <v>144.0</v>
+        <v>83.0</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>516</v>
@@ -6055,15 +6049,15 @@
         <v>517</v>
       </c>
       <c r="F222" s="7">
-        <v>345.0</v>
+        <v>2265.0</v>
       </c>
       <c r="G222" s="9">
-        <v>220.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="7">
-        <v>83.0</v>
+        <v>109.0</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>518</v>
@@ -6073,15 +6067,15 @@
         <v>519</v>
       </c>
       <c r="F223" s="7">
-        <v>2265.0</v>
+        <v>5874.0</v>
       </c>
       <c r="G223" s="9">
-        <v>221.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="7">
-        <v>109.0</v>
+        <v>47.0</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>520</v>
@@ -6091,15 +6085,15 @@
         <v>521</v>
       </c>
       <c r="F224" s="7">
-        <v>5874.0</v>
+        <v>17196.0</v>
       </c>
       <c r="G224" s="9">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="7">
-        <v>47.0</v>
+        <v>197.0</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>522</v>
@@ -6109,15 +6103,15 @@
         <v>523</v>
       </c>
       <c r="F225" s="7">
-        <v>17196.0</v>
+        <v>292.0</v>
       </c>
       <c r="G225" s="9">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="7">
-        <v>197.0</v>
+        <v>34.0</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>524</v>
@@ -6127,15 +6121,15 @@
         <v>525</v>
       </c>
       <c r="F226" s="7">
-        <v>292.0</v>
+        <v>3793.0</v>
       </c>
       <c r="G226" s="9">
-        <v>224.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="7">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>526</v>
@@ -6145,15 +6139,15 @@
         <v>527</v>
       </c>
       <c r="F227" s="7">
-        <v>3793.0</v>
+        <v>822.0</v>
       </c>
       <c r="G227" s="9">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="7">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>528</v>
@@ -6163,15 +6157,15 @@
         <v>529</v>
       </c>
       <c r="F228" s="7">
-        <v>822.0</v>
+        <v>6847.0</v>
       </c>
       <c r="G228" s="9">
-        <v>226.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="7">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>530</v>
@@ -6181,15 +6175,15 @@
         <v>531</v>
       </c>
       <c r="F229" s="7">
-        <v>6847.0</v>
+        <v>1141.0</v>
       </c>
       <c r="G229" s="9">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="7">
-        <v>6.0</v>
+        <v>76.0</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>532</v>
@@ -6199,15 +6193,15 @@
         <v>533</v>
       </c>
       <c r="F230" s="7">
-        <v>1141.0</v>
+        <v>3265.0</v>
       </c>
       <c r="G230" s="9">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="7">
-        <v>76.0</v>
+        <v>234.0</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>534</v>
@@ -6217,15 +6211,15 @@
         <v>535</v>
       </c>
       <c r="F231" s="7">
-        <v>3265.0</v>
+        <v>343.0</v>
       </c>
       <c r="G231" s="9">
-        <v>229.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="7">
-        <v>234.0</v>
+        <v>17.0</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>536</v>
@@ -6235,15 +6229,15 @@
         <v>537</v>
       </c>
       <c r="F232" s="7">
-        <v>343.0</v>
+        <v>1977.0</v>
       </c>
       <c r="G232" s="9">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="7">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>538</v>
@@ -6253,29 +6247,15 @@
         <v>539</v>
       </c>
       <c r="F233" s="7">
-        <v>1977.0</v>
+        <v>1423.0</v>
       </c>
       <c r="G233" s="9">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C234" s="8"/>
-      <c r="D234" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F234" s="7">
-        <v>1423.0</v>
-      </c>
-      <c r="G234" s="9">
-        <v>232.0</v>
-      </c>
+      <c r="C234" s="11"/>
+      <c r="F234" s="12"/>
     </row>
     <row r="235">
       <c r="C235" s="11"/>
@@ -9324,10 +9304,6 @@
     <row r="996">
       <c r="C996" s="11"/>
       <c r="F996" s="12"/>
-    </row>
-    <row r="997">
-      <c r="C997" s="11"/>
-      <c r="F997" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Data/source/Russian/Water footprint (Russian).xlsx
+++ b/Data/source/Russian/Water footprint (Russian).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="538">
   <si>
     <t>ID</t>
   </si>
@@ -418,10 +418,7 @@
     <t>Cabbages</t>
   </si>
   <si>
-    <t>Капуста кочанная</t>
-  </si>
-  <si>
-    <t>Белокочанная</t>
+    <t>Капуста белокочанная</t>
   </si>
   <si>
     <t>Cardamoms</t>
@@ -934,7 +931,7 @@
     <t>Olive oil</t>
   </si>
   <si>
-    <t>Оливковое масло рафинированное (refined)</t>
+    <t>Оливковое масло очищенное</t>
   </si>
   <si>
     <t>Palm oil</t>
@@ -1400,9 +1397,6 @@
   </si>
   <si>
     <t>Тыква</t>
-  </si>
-  <si>
-    <t>Squash</t>
   </si>
   <si>
     <t>Melon seed</t>
@@ -2847,9 +2841,7 @@
       <c r="D56" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="7">
         <v>280.0</v>
       </c>
@@ -2862,11 +2854,11 @@
         <v>31.0</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7">
         <v>34319.0</v>
@@ -2880,14 +2872,14 @@
         <v>168.0</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="F58" s="7">
         <v>287.0</v>
@@ -2901,11 +2893,11 @@
         <v>166.0</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" s="7">
         <v>1436.0</v>
@@ -2919,11 +2911,11 @@
         <v>211.0</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F60" s="7">
         <v>1436.0</v>
@@ -2937,11 +2929,11 @@
         <v>165.0</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F61" s="7">
         <v>1044.0</v>
@@ -2955,11 +2947,11 @@
         <v>167.0</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F62" s="7">
         <v>1512.0</v>
@@ -2973,14 +2965,14 @@
         <v>37.0</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="F63" s="7">
         <v>24740.0</v>
@@ -2994,11 +2986,11 @@
         <v>42.0</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F64" s="7">
         <v>2750.0</v>
@@ -3012,14 +3004,14 @@
         <v>35.0</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="F65" s="7">
         <v>14218.0</v>
@@ -3033,11 +3025,11 @@
         <v>104.0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F66" s="7">
         <v>514.0</v>
@@ -3051,11 +3043,11 @@
         <v>49.0</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F67" s="7">
         <v>748.0</v>
@@ -3069,14 +3061,14 @@
         <v>38.0</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F68" s="7">
         <v>9896.0</v>
@@ -3090,11 +3082,11 @@
         <v>70.0</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F69" s="7">
         <v>276.0</v>
@@ -3108,11 +3100,11 @@
         <v>107.0</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F70" s="7">
         <v>17093.0</v>
@@ -3126,13 +3118,13 @@
         <v>86.0</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="F71" s="7">
         <v>5521.0</v>
@@ -3146,16 +3138,16 @@
         <v>55.0</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="E72" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="F72" s="7">
         <v>2449.0</v>
@@ -3169,16 +3161,16 @@
         <v>56.0</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="E73" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="F73" s="7">
         <v>4490.0</v>
@@ -3192,11 +3184,11 @@
         <v>58.0</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F74" s="7">
         <v>1256.0</v>
@@ -3210,11 +3202,11 @@
         <v>57.0</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F75" s="7">
         <v>2687.0</v>
@@ -3228,11 +3220,11 @@
         <v>105.0</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F76" s="7">
         <v>23391.0</v>
@@ -3246,11 +3238,11 @@
         <v>100.0</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F77" s="7">
         <v>3685.0</v>
@@ -3264,11 +3256,11 @@
         <v>61.0</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F78" s="7">
         <v>2093.0</v>
@@ -3282,11 +3274,11 @@
         <v>62.0</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F79" s="7">
         <v>8280.0</v>
@@ -3300,11 +3292,11 @@
         <v>63.0</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F80" s="7">
         <v>8280.0</v>
@@ -3318,13 +3310,13 @@
         <v>48.0</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="F81" s="7">
         <v>15526.0</v>
@@ -3338,14 +3330,14 @@
         <v>69.0</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="F82" s="7">
         <v>6906.0</v>
@@ -3359,11 +3351,11 @@
         <v>59.0</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F83" s="7">
         <v>15897.0</v>
@@ -3377,11 +3369,11 @@
         <v>60.0</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F84" s="7">
         <v>18925.0</v>
@@ -3395,11 +3387,11 @@
         <v>87.0</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F85" s="7">
         <v>526.0</v>
@@ -3413,16 +3405,16 @@
         <v>114.0</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="F86" s="7">
         <v>1222.0</v>
@@ -3436,13 +3428,13 @@
         <v>119.0</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="F87" s="7">
         <v>700.0</v>
@@ -3456,16 +3448,16 @@
         <v>116.0</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>210</v>
-      </c>
       <c r="E88" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F88" s="7">
         <v>1081.0</v>
@@ -3479,16 +3471,16 @@
         <v>115.0</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="E89" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F89" s="7">
         <v>1253.0</v>
@@ -3502,16 +3494,16 @@
         <v>117.0</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="E90" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F90" s="7">
         <v>2575.0</v>
@@ -3525,16 +3517,16 @@
         <v>118.0</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="E91" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F91" s="7">
         <v>1671.0</v>
@@ -3548,14 +3540,14 @@
         <v>183.0</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E92" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="F92" s="7">
         <v>21793.0</v>
@@ -3569,11 +3561,11 @@
         <v>184.0</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F93" s="7">
         <v>9371.0</v>
@@ -3587,14 +3579,14 @@
         <v>44.0</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="F94" s="7">
         <v>4325.0</v>
@@ -3608,14 +3600,14 @@
         <v>88.0</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="F95" s="7">
         <v>336.0</v>
@@ -3629,11 +3621,11 @@
         <v>111.0</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F96" s="7">
         <v>642.0</v>
@@ -3647,11 +3639,11 @@
         <v>110.0</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F97" s="7">
         <v>237.0</v>
@@ -3665,11 +3657,11 @@
         <v>108.0</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F98" s="7">
         <v>642.0</v>
@@ -3683,11 +3675,11 @@
         <v>113.0</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F99" s="7">
         <v>9415.0</v>
@@ -3701,11 +3693,11 @@
         <v>80.0</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="7">
@@ -3720,11 +3712,11 @@
         <v>112.0</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F101" s="7">
         <v>5168.0</v>
@@ -3738,11 +3730,11 @@
         <v>163.0</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F102" s="7">
         <v>2188.0</v>
@@ -3756,14 +3748,14 @@
         <v>75.0</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="F103" s="7">
         <v>1849.0</v>
@@ -3777,11 +3769,11 @@
         <v>173.0</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F104" s="7">
         <v>413.0</v>
@@ -3795,11 +3787,11 @@
         <v>123.0</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F105" s="7">
         <v>1800.0</v>
@@ -3813,14 +3805,14 @@
         <v>124.0</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="F106" s="7">
         <v>1800.0</v>
@@ -3834,11 +3826,11 @@
         <v>122.0</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F107" s="7">
         <v>748.0</v>
@@ -3852,13 +3844,13 @@
         <v>125.0</v>
       </c>
       <c r="B108" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="F108" s="7">
         <v>20388.0</v>
@@ -3872,16 +3864,16 @@
         <v>126.0</v>
       </c>
       <c r="B109" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="D109" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="E109" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="F109" s="7">
         <v>564.0</v>
@@ -3895,14 +3887,14 @@
         <v>74.0</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="F110" s="7">
         <v>1610.0</v>
@@ -3916,16 +3908,16 @@
         <v>127.0</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>265</v>
-      </c>
       <c r="E111" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F111" s="7">
         <v>2254.0</v>
@@ -3939,14 +3931,14 @@
         <v>36.0</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F112" s="7">
         <v>1878.0</v>
@@ -3960,14 +3952,14 @@
         <v>210.0</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F113" s="7">
         <v>2818.0</v>
@@ -3981,14 +3973,14 @@
         <v>139.0</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="F114" s="7">
         <v>1098.0</v>
@@ -4002,7 +3994,7 @@
         <v>28.0</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="9" t="s">
@@ -4020,11 +4012,11 @@
         <v>3.0</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F116" s="7">
         <v>16095.0</v>
@@ -4038,11 +4030,11 @@
         <v>4.0</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F117" s="7">
         <v>8047.0</v>
@@ -4056,11 +4048,11 @@
         <v>129.0</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F118" s="7">
         <v>1020.0</v>
@@ -4074,11 +4066,11 @@
         <v>130.0</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F119" s="7">
         <v>4745.0</v>
@@ -4092,11 +4084,11 @@
         <v>33.0</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F120" s="7">
         <v>195.0</v>
@@ -4110,13 +4102,13 @@
         <v>135.0</v>
       </c>
       <c r="B121" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="D121" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="F121" s="7">
         <v>34319.0</v>
@@ -4130,11 +4122,11 @@
         <v>156.0</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F122" s="7">
         <v>288.0</v>
@@ -4148,11 +4140,11 @@
         <v>134.0</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F123" s="7">
         <v>910.0</v>
@@ -4166,14 +4158,14 @@
         <v>43.0</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="F124" s="7">
         <v>4177.0</v>
@@ -4187,11 +4179,11 @@
         <v>137.0</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F125" s="7">
         <v>1788.0</v>
@@ -4205,11 +4197,11 @@
         <v>136.0</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F126" s="7">
         <v>2536.0</v>
@@ -4223,11 +4215,11 @@
         <v>138.0</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F127" s="7">
         <v>2416.0</v>
@@ -4241,11 +4233,11 @@
         <v>71.0</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F128" s="7">
         <v>353.0</v>
@@ -4259,11 +4251,11 @@
         <v>143.0</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F129" s="7">
         <v>3015.0</v>
@@ -4277,11 +4269,11 @@
         <v>142.0</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F130" s="7">
         <v>14431.0</v>
@@ -4295,11 +4287,11 @@
         <v>141.0</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F131" s="7">
         <v>14726.0</v>
@@ -4313,11 +4305,11 @@
         <v>150.0</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F132" s="7">
         <v>4971.0</v>
@@ -4331,11 +4323,11 @@
         <v>149.0</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F133" s="7">
         <v>2868.0</v>
@@ -4349,13 +4341,13 @@
         <v>148.0</v>
       </c>
       <c r="B134" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="D134" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="F134" s="7">
         <v>5401.0</v>
@@ -4369,14 +4361,14 @@
         <v>151.0</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E135" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="F135" s="7">
         <v>460.0</v>
@@ -4390,11 +4382,11 @@
         <v>99.0</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F136" s="7">
         <v>2447.0</v>
@@ -4408,14 +4400,14 @@
         <v>45.0</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E137" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="F137" s="7">
         <v>7365.0</v>
@@ -4429,14 +4421,14 @@
         <v>46.0</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F138" s="7">
         <v>379.0</v>
@@ -4450,11 +4442,11 @@
         <v>152.0</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F139" s="7">
         <v>910.0</v>
@@ -4468,11 +4460,11 @@
         <v>21.0</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F140" s="7">
         <v>298.0</v>
@@ -4486,14 +4478,14 @@
         <v>161.0</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E141" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="F141" s="7">
         <v>1602.0</v>
@@ -4507,14 +4499,14 @@
         <v>207.0</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="F142" s="7">
         <v>3366.0</v>
@@ -4528,11 +4520,11 @@
         <v>206.0</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F143" s="7">
         <v>6792.0</v>
@@ -4546,11 +4538,11 @@
         <v>228.0</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F144" s="7">
         <v>1827.0</v>
@@ -4564,14 +4556,14 @@
         <v>230.0</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E145" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="F145" s="7">
         <v>4189.0</v>
@@ -4585,11 +4577,11 @@
         <v>229.0</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F146" s="7">
         <v>1849.0</v>
@@ -4603,11 +4595,11 @@
         <v>231.0</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F147" s="7">
         <v>2036.0</v>
@@ -4621,11 +4613,11 @@
         <v>232.0</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F148" s="7">
         <v>1436.0</v>
@@ -4639,11 +4631,11 @@
         <v>131.0</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F149" s="7">
         <v>4478.0</v>
@@ -4657,14 +4649,14 @@
         <v>170.0</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E150" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>352</v>
       </c>
       <c r="F150" s="7">
         <v>4507.0</v>
@@ -4678,11 +4670,11 @@
         <v>172.0</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F151" s="7">
         <v>2271.0</v>
@@ -4696,11 +4688,11 @@
         <v>171.0</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F152" s="7">
         <v>4301.0</v>
@@ -4714,14 +4706,14 @@
         <v>133.0</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E153" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>359</v>
       </c>
       <c r="F153" s="7">
         <v>13748.0</v>
@@ -4735,11 +4727,11 @@
         <v>180.0</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F154" s="7">
         <v>1930.0</v>
@@ -4753,11 +4745,11 @@
         <v>176.0</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F155" s="7">
         <v>2497.0</v>
@@ -4771,13 +4763,13 @@
         <v>177.0</v>
       </c>
       <c r="B156" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="D156" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="F156" s="7">
         <v>2172.0</v>
@@ -4791,11 +4783,11 @@
         <v>178.0</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F157" s="7">
         <v>1673.0</v>
@@ -4809,11 +4801,11 @@
         <v>174.0</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F158" s="7">
         <v>2230.0</v>
@@ -4827,11 +4819,11 @@
         <v>175.0</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F159" s="7">
         <v>2628.0</v>
@@ -4845,11 +4837,11 @@
         <v>32.0</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F160" s="7">
         <v>5594.0</v>
@@ -4863,11 +4855,11 @@
         <v>179.0</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F161" s="7">
         <v>1544.0</v>
@@ -4881,14 +4873,14 @@
         <v>181.0</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E162" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="F162" s="7">
         <v>7221.0</v>
@@ -4902,14 +4894,14 @@
         <v>205.0</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E163" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="F163" s="7">
         <v>1782.0</v>
@@ -4923,11 +4915,11 @@
         <v>203.0</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F164" s="7">
         <v>865.0</v>
@@ -4941,11 +4933,11 @@
         <v>204.0</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F165" s="7">
         <v>1666.0</v>
@@ -4959,11 +4951,11 @@
         <v>201.0</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F166" s="7">
         <v>132.0</v>
@@ -4977,11 +4969,11 @@
         <v>202.0</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F167" s="7">
         <v>210.0</v>
@@ -4995,16 +4987,16 @@
         <v>164.0</v>
       </c>
       <c r="B168" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C168" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="D168" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="E168" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>394</v>
       </c>
       <c r="F168" s="7">
         <v>5988.0</v>
@@ -5018,11 +5010,11 @@
         <v>186.0</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F169" s="7">
         <v>7824.0</v>
@@ -5036,14 +5028,14 @@
         <v>185.0</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E170" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="F170" s="7">
         <v>7041.0</v>
@@ -5057,11 +5049,11 @@
         <v>162.0</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F171" s="7">
         <v>2180.0</v>
@@ -5075,14 +5067,14 @@
         <v>72.0</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E172" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>404</v>
       </c>
       <c r="F172" s="7">
         <v>499.0</v>
@@ -5096,11 +5088,11 @@
         <v>192.0</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F173" s="7">
         <v>2145.0</v>
@@ -5114,11 +5106,11 @@
         <v>194.0</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F174" s="7">
         <v>572.0</v>
@@ -5132,11 +5124,11 @@
         <v>196.0</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F175" s="7">
         <v>4190.0</v>
@@ -5150,11 +5142,11 @@
         <v>190.0</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F176" s="7">
         <v>3763.0</v>
@@ -5168,11 +5160,11 @@
         <v>195.0</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F177" s="7">
         <v>613.0</v>
@@ -5186,11 +5178,11 @@
         <v>121.0</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F178" s="7">
         <v>2437.0</v>
@@ -5204,11 +5196,11 @@
         <v>120.0</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F179" s="7">
         <v>1950.0</v>
@@ -5222,11 +5214,11 @@
         <v>84.0</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F180" s="7">
         <v>353.0</v>
@@ -5240,11 +5232,11 @@
         <v>188.0</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F181" s="7">
         <v>3048.0</v>
@@ -5258,11 +5250,11 @@
         <v>191.0</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F182" s="7">
         <v>2523.0</v>
@@ -5276,11 +5268,11 @@
         <v>12.0</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F183" s="7">
         <v>2150.0</v>
@@ -5294,11 +5286,11 @@
         <v>40.0</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F184" s="7">
         <v>5060.0</v>
@@ -5312,11 +5304,11 @@
         <v>214.0</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F185" s="7">
         <v>2925.0</v>
@@ -5330,16 +5322,16 @@
         <v>212.0</v>
       </c>
       <c r="B186" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C186" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="D186" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="E186" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="F186" s="7">
         <v>606.0</v>
@@ -5353,14 +5345,14 @@
         <v>218.0</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C187" s="8"/>
       <c r="D187" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E187" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>437</v>
       </c>
       <c r="F187" s="7">
         <v>855.0</v>
@@ -5374,14 +5366,14 @@
         <v>219.0</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F188" s="7">
         <v>713.0</v>
@@ -5395,14 +5387,14 @@
         <v>217.0</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F189" s="7">
         <v>534.0</v>
@@ -5416,14 +5408,14 @@
         <v>215.0</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F190" s="7">
         <v>267.0</v>
@@ -5437,14 +5429,14 @@
         <v>216.0</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C191" s="8"/>
       <c r="D191" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F191" s="7">
         <v>1069.0</v>
@@ -5458,14 +5450,14 @@
         <v>221.0</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F192" s="7">
         <v>214.0</v>
@@ -5479,14 +5471,14 @@
         <v>220.0</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C193" s="8"/>
       <c r="D193" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F193" s="7">
         <v>4276.0</v>
@@ -5500,14 +5492,14 @@
         <v>222.0</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F194" s="7">
         <v>267.0</v>
@@ -5521,14 +5513,14 @@
         <v>193.0</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C195" s="8"/>
       <c r="D195" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E195" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="F195" s="7">
         <v>2523.0</v>
@@ -5542,14 +5534,14 @@
         <v>30.0</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C196" s="8"/>
       <c r="D196" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E196" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="E196" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="F196" s="7">
         <v>527.0</v>
@@ -5563,14 +5555,14 @@
         <v>223.0</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E197" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>460</v>
       </c>
       <c r="F197" s="7">
         <v>195.0</v>
@@ -5584,11 +5576,11 @@
         <v>169.0</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F198" s="7">
         <v>336.0</v>
@@ -5599,25 +5591,25 @@
     </row>
     <row r="199">
       <c r="A199" s="7">
-        <v>198.0</v>
+        <v>128.0</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F199" s="7">
-        <v>336.0</v>
+        <v>5184.0</v>
       </c>
       <c r="G199" s="9">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="7">
-        <v>128.0</v>
+        <v>187.0</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>464</v>
@@ -5626,79 +5618,79 @@
       <c r="D200" s="9" t="s">
         <v>465</v>
       </c>
+      <c r="E200" s="9" t="s">
+        <v>466</v>
+      </c>
       <c r="F200" s="7">
-        <v>5184.0</v>
+        <v>2180.0</v>
       </c>
       <c r="G200" s="9">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="7">
-        <v>187.0</v>
+        <v>78.0</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C201" s="8"/>
       <c r="D201" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F201" s="7">
-        <v>2180.0</v>
+        <v>8280.0</v>
       </c>
       <c r="G201" s="9">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="7">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F202" s="7">
-        <v>8280.0</v>
+        <v>2277.0</v>
       </c>
       <c r="G202" s="9">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="7">
-        <v>73.0</v>
+        <v>160.0</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C203" s="8"/>
       <c r="D203" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="E203" s="9" t="s">
         <v>474</v>
       </c>
       <c r="F203" s="7">
-        <v>2277.0</v>
+        <v>11363.0</v>
       </c>
       <c r="G203" s="9">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="7">
-        <v>160.0</v>
+        <v>81.0</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>475</v>
@@ -5708,15 +5700,15 @@
         <v>476</v>
       </c>
       <c r="F204" s="7">
-        <v>11363.0</v>
+        <v>1782.0</v>
       </c>
       <c r="G204" s="9">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="7">
-        <v>81.0</v>
+        <v>98.0</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>477</v>
@@ -5725,37 +5717,40 @@
       <c r="D205" s="9" t="s">
         <v>478</v>
       </c>
+      <c r="E205" s="9" t="s">
+        <v>479</v>
+      </c>
       <c r="F205" s="7">
-        <v>1782.0</v>
+        <v>5258.0</v>
       </c>
       <c r="G205" s="9">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="7">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F206" s="7">
-        <v>5258.0</v>
+        <v>10515.0</v>
       </c>
       <c r="G206" s="9">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="7">
-        <v>97.0</v>
+        <v>23.0</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>482</v>
@@ -5764,19 +5759,16 @@
       <c r="D207" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="E207" s="9" t="s">
-        <v>481</v>
-      </c>
       <c r="F207" s="7">
-        <v>10515.0</v>
+        <v>1608.0</v>
       </c>
       <c r="G207" s="9">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="7">
-        <v>23.0</v>
+        <v>68.0</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>484</v>
@@ -5785,37 +5777,37 @@
       <c r="D208" s="9" t="s">
         <v>485</v>
       </c>
+      <c r="E208" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="F208" s="7">
-        <v>1608.0</v>
+        <v>3957.0</v>
       </c>
       <c r="G208" s="9">
-        <v>207.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="7">
-        <v>68.0</v>
+        <v>182.0</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C209" s="8"/>
       <c r="D209" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="E209" s="9" t="s">
         <v>488</v>
       </c>
       <c r="F209" s="7">
-        <v>3957.0</v>
+        <v>4029.0</v>
       </c>
       <c r="G209" s="9">
-        <v>208.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="7">
-        <v>182.0</v>
+        <v>67.0</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>489</v>
@@ -5825,15 +5817,15 @@
         <v>490</v>
       </c>
       <c r="F210" s="7">
-        <v>4029.0</v>
+        <v>1332.0</v>
       </c>
       <c r="G210" s="9">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="7">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>491</v>
@@ -5843,15 +5835,15 @@
         <v>492</v>
       </c>
       <c r="F211" s="7">
-        <v>1332.0</v>
+        <v>9982.0</v>
       </c>
       <c r="G211" s="9">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="7">
-        <v>64.0</v>
+        <v>101.0</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>493</v>
@@ -5861,15 +5853,15 @@
         <v>494</v>
       </c>
       <c r="F212" s="7">
-        <v>9982.0</v>
+        <v>4065.0</v>
       </c>
       <c r="G212" s="9">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="7">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>495</v>
@@ -5879,15 +5871,15 @@
         <v>496</v>
       </c>
       <c r="F213" s="7">
-        <v>4065.0</v>
+        <v>16259.0</v>
       </c>
       <c r="G213" s="9">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="7">
-        <v>102.0</v>
+        <v>39.0</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>497</v>
@@ -5897,15 +5889,15 @@
         <v>498</v>
       </c>
       <c r="F214" s="7">
-        <v>16259.0</v>
+        <v>285.0</v>
       </c>
       <c r="G214" s="9">
-        <v>213.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="7">
-        <v>39.0</v>
+        <v>213.0</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>499</v>
@@ -5915,15 +5907,15 @@
         <v>500</v>
       </c>
       <c r="F215" s="7">
-        <v>285.0</v>
+        <v>8856.0</v>
       </c>
       <c r="G215" s="9">
-        <v>214.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="7">
-        <v>213.0</v>
+        <v>41.0</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>501</v>
@@ -5932,37 +5924,37 @@
       <c r="D216" s="9" t="s">
         <v>502</v>
       </c>
+      <c r="E216" s="9" t="s">
+        <v>503</v>
+      </c>
       <c r="F216" s="7">
-        <v>8856.0</v>
+        <v>1604.0</v>
       </c>
       <c r="G216" s="9">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="7">
-        <v>41.0</v>
+        <v>22.0</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C217" s="8"/>
       <c r="D217" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="E217" s="9" t="s">
         <v>505</v>
       </c>
       <c r="F217" s="7">
-        <v>1604.0</v>
+        <v>845.0</v>
       </c>
       <c r="G217" s="9">
-        <v>216.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="7">
-        <v>22.0</v>
+        <v>82.0</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>506</v>
@@ -5972,56 +5964,56 @@
         <v>507</v>
       </c>
       <c r="F218" s="7">
-        <v>845.0</v>
+        <v>589.0</v>
       </c>
       <c r="G218" s="9">
-        <v>217.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="7">
-        <v>82.0</v>
+        <v>145.0</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C219" s="8"/>
+      <c r="C219" s="8" t="s">
+        <v>509</v>
+      </c>
       <c r="D219" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>511</v>
       </c>
       <c r="F219" s="7">
-        <v>589.0</v>
+        <v>272.0</v>
       </c>
       <c r="G219" s="9">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="7">
-        <v>145.0</v>
+        <v>144.0</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="C220" s="8"/>
       <c r="D220" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="E220" s="9" t="s">
         <v>513</v>
       </c>
       <c r="F220" s="7">
-        <v>272.0</v>
+        <v>345.0</v>
       </c>
       <c r="G220" s="9">
-        <v>219.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="7">
-        <v>144.0</v>
+        <v>83.0</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>514</v>
@@ -6031,15 +6023,15 @@
         <v>515</v>
       </c>
       <c r="F221" s="7">
-        <v>345.0</v>
+        <v>2265.0</v>
       </c>
       <c r="G221" s="9">
-        <v>220.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="7">
-        <v>83.0</v>
+        <v>109.0</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>516</v>
@@ -6049,15 +6041,15 @@
         <v>517</v>
       </c>
       <c r="F222" s="7">
-        <v>2265.0</v>
+        <v>5874.0</v>
       </c>
       <c r="G222" s="9">
-        <v>221.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="7">
-        <v>109.0</v>
+        <v>47.0</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>518</v>
@@ -6067,15 +6059,15 @@
         <v>519</v>
       </c>
       <c r="F223" s="7">
-        <v>5874.0</v>
+        <v>17196.0</v>
       </c>
       <c r="G223" s="9">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="7">
-        <v>47.0</v>
+        <v>197.0</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>520</v>
@@ -6085,15 +6077,15 @@
         <v>521</v>
       </c>
       <c r="F224" s="7">
-        <v>17196.0</v>
+        <v>292.0</v>
       </c>
       <c r="G224" s="9">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="7">
-        <v>197.0</v>
+        <v>34.0</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>522</v>
@@ -6103,15 +6095,15 @@
         <v>523</v>
       </c>
       <c r="F225" s="7">
-        <v>292.0</v>
+        <v>3793.0</v>
       </c>
       <c r="G225" s="9">
-        <v>224.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="7">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>524</v>
@@ -6121,15 +6113,15 @@
         <v>525</v>
       </c>
       <c r="F226" s="7">
-        <v>3793.0</v>
+        <v>822.0</v>
       </c>
       <c r="G226" s="9">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="7">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>526</v>
@@ -6139,15 +6131,15 @@
         <v>527</v>
       </c>
       <c r="F227" s="7">
-        <v>822.0</v>
+        <v>6847.0</v>
       </c>
       <c r="G227" s="9">
-        <v>226.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="7">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>528</v>
@@ -6157,15 +6149,15 @@
         <v>529</v>
       </c>
       <c r="F228" s="7">
-        <v>6847.0</v>
+        <v>1141.0</v>
       </c>
       <c r="G228" s="9">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="7">
-        <v>6.0</v>
+        <v>76.0</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>530</v>
@@ -6175,15 +6167,15 @@
         <v>531</v>
       </c>
       <c r="F229" s="7">
-        <v>1141.0</v>
+        <v>3265.0</v>
       </c>
       <c r="G229" s="9">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="7">
-        <v>76.0</v>
+        <v>234.0</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>532</v>
@@ -6193,15 +6185,15 @@
         <v>533</v>
       </c>
       <c r="F230" s="7">
-        <v>3265.0</v>
+        <v>343.0</v>
       </c>
       <c r="G230" s="9">
-        <v>229.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="7">
-        <v>234.0</v>
+        <v>17.0</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>534</v>
@@ -6211,15 +6203,15 @@
         <v>535</v>
       </c>
       <c r="F231" s="7">
-        <v>343.0</v>
+        <v>1977.0</v>
       </c>
       <c r="G231" s="9">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="7">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>536</v>
@@ -6229,29 +6221,15 @@
         <v>537</v>
       </c>
       <c r="F232" s="7">
-        <v>1977.0</v>
+        <v>1423.0</v>
       </c>
       <c r="G232" s="9">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C233" s="8"/>
-      <c r="D233" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="F233" s="7">
-        <v>1423.0</v>
-      </c>
-      <c r="G233" s="9">
-        <v>232.0</v>
-      </c>
+      <c r="C233" s="11"/>
+      <c r="F233" s="12"/>
     </row>
     <row r="234">
       <c r="C234" s="11"/>
@@ -9300,10 +9278,6 @@
     <row r="995">
       <c r="C995" s="11"/>
       <c r="F995" s="12"/>
-    </row>
-    <row r="996">
-      <c r="C996" s="11"/>
-      <c r="F996" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
